--- a/软件工程/修复版题库.xlsx
+++ b/软件工程/修复版题库.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\250418_Py_auto_home_work\pythonProject\src\软工\output\repaired\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\24-25-2 期末复习资料\软件工程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF6E363-27E6-42EB-B845-CB6F927CE1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B1DC1F-ED82-4906-9064-003145157CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="525">
   <si>
     <t>题型</t>
   </si>
@@ -1589,6 +1589,22 @@
   </si>
   <si>
     <t>A. 面向过程软件开发过程迭代和无缝的特性 | B. 螺旋模型主要适用于内部开发的小规模软件项目 | C. 快速原型模型是把软件产品作为一系列的增量构件来设计、编码、集成和测试 | D. 实际的瀑布模型是带有反馈环的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1936,10 +1952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D328"/>
+  <dimension ref="A1:D329"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="A1:D328"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1952,13 +1968,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>363</v>
+        <v>521</v>
       </c>
       <c r="B1" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="C1" t="s">
-        <v>516</v>
+        <v>523</v>
+      </c>
+      <c r="D1" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -1966,24 +1985,21 @@
         <v>363</v>
       </c>
       <c r="B2" t="s">
-        <v>364</v>
+        <v>515</v>
       </c>
       <c r="C2" t="s">
-        <v>365</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s">
-        <v>255</v>
+        <v>364</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" t="s">
-        <v>61</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -1991,10 +2007,10 @@
         <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
         <v>61</v>
@@ -2005,7 +2021,7 @@
         <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="C5" t="s">
         <v>63</v>
@@ -2019,7 +2035,7 @@
         <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>442</v>
+        <v>218</v>
       </c>
       <c r="C6" t="s">
         <v>63</v>
@@ -2033,7 +2049,7 @@
         <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>471</v>
+        <v>442</v>
       </c>
       <c r="C7" t="s">
         <v>63</v>
@@ -2047,7 +2063,7 @@
         <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>471</v>
       </c>
       <c r="C8" t="s">
         <v>63</v>
@@ -2061,7 +2077,7 @@
         <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>470</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
         <v>63</v>
@@ -2075,7 +2091,7 @@
         <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="C10" t="s">
         <v>63</v>
@@ -2089,7 +2105,7 @@
         <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>250</v>
+        <v>456</v>
       </c>
       <c r="C11" t="s">
         <v>63</v>
@@ -2103,7 +2119,7 @@
         <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>453</v>
+        <v>250</v>
       </c>
       <c r="C12" t="s">
         <v>63</v>
@@ -2117,7 +2133,7 @@
         <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>337</v>
+        <v>453</v>
       </c>
       <c r="C13" t="s">
         <v>63</v>
@@ -2131,7 +2147,7 @@
         <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>467</v>
+        <v>337</v>
       </c>
       <c r="C14" t="s">
         <v>63</v>
@@ -2145,10 +2161,10 @@
         <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
         <v>61</v>
@@ -2159,10 +2175,10 @@
         <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>450</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
         <v>61</v>
@@ -2173,7 +2189,7 @@
         <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>466</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
         <v>63</v>
@@ -2187,7 +2203,7 @@
         <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="C18" t="s">
         <v>63</v>
@@ -2201,7 +2217,7 @@
         <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>254</v>
+        <v>474</v>
       </c>
       <c r="C19" t="s">
         <v>63</v>
@@ -2215,7 +2231,7 @@
         <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C20" t="s">
         <v>63</v>
@@ -2229,7 +2245,7 @@
         <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C21" t="s">
         <v>63</v>
@@ -2243,7 +2259,7 @@
         <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>455</v>
+        <v>257</v>
       </c>
       <c r="C22" t="s">
         <v>63</v>
@@ -2257,7 +2273,7 @@
         <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>240</v>
+        <v>455</v>
       </c>
       <c r="C23" t="s">
         <v>63</v>
@@ -2271,7 +2287,7 @@
         <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>475</v>
+        <v>240</v>
       </c>
       <c r="C24" t="s">
         <v>63</v>
@@ -2285,10 +2301,10 @@
         <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>451</v>
+        <v>475</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
         <v>61</v>
@@ -2299,7 +2315,7 @@
         <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="C26" t="s">
         <v>60</v>
@@ -2313,7 +2329,7 @@
         <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C27" t="s">
         <v>60</v>
@@ -2327,10 +2343,10 @@
         <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>332</v>
+        <v>439</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
         <v>61</v>
@@ -2341,7 +2357,7 @@
         <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C29" t="s">
         <v>63</v>
@@ -2355,7 +2371,7 @@
         <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>460</v>
+        <v>335</v>
       </c>
       <c r="C30" t="s">
         <v>63</v>
@@ -2369,10 +2385,10 @@
         <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>317</v>
+        <v>460</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D31" t="s">
         <v>61</v>
@@ -2383,10 +2399,10 @@
         <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D32" t="s">
         <v>61</v>
@@ -2397,7 +2413,7 @@
         <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="C33" t="s">
         <v>63</v>
@@ -2411,7 +2427,7 @@
         <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C34" t="s">
         <v>63</v>
@@ -2425,10 +2441,10 @@
         <v>58</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>325</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D35" t="s">
         <v>61</v>
@@ -2439,10 +2455,10 @@
         <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D36" t="s">
         <v>61</v>
@@ -2453,7 +2469,7 @@
         <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
         <v>63</v>
@@ -2467,7 +2483,7 @@
         <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s">
         <v>63</v>
@@ -2481,7 +2497,7 @@
         <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>472</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s">
         <v>63</v>
@@ -2495,7 +2511,7 @@
         <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>472</v>
       </c>
       <c r="C40" t="s">
         <v>63</v>
@@ -2509,10 +2525,10 @@
         <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D41" t="s">
         <v>61</v>
@@ -2523,10 +2539,10 @@
         <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>468</v>
+        <v>74</v>
       </c>
       <c r="C42" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D42" t="s">
         <v>61</v>
@@ -2537,7 +2553,7 @@
         <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>468</v>
       </c>
       <c r="C43" t="s">
         <v>63</v>
@@ -2551,7 +2567,7 @@
         <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
         <v>63</v>
@@ -2565,10 +2581,10 @@
         <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D45" t="s">
         <v>61</v>
@@ -2579,10 +2595,10 @@
         <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>465</v>
+        <v>75</v>
       </c>
       <c r="C46" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D46" t="s">
         <v>61</v>
@@ -2593,10 +2609,10 @@
         <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D47" t="s">
         <v>61</v>
@@ -2607,10 +2623,10 @@
         <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="C48" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D48" t="s">
         <v>61</v>
@@ -2621,10 +2637,10 @@
         <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>79</v>
+        <v>461</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D49" t="s">
         <v>61</v>
@@ -2635,7 +2651,7 @@
         <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C50" t="s">
         <v>60</v>
@@ -2649,7 +2665,7 @@
         <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>440</v>
+        <v>80</v>
       </c>
       <c r="C51" t="s">
         <v>60</v>
@@ -2663,7 +2679,7 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C52" t="s">
         <v>60</v>
@@ -2677,10 +2693,10 @@
         <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>309</v>
+        <v>441</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D53" t="s">
         <v>61</v>
@@ -2691,7 +2707,7 @@
         <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>309</v>
       </c>
       <c r="C54" t="s">
         <v>63</v>
@@ -2705,7 +2721,7 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>459</v>
+        <v>72</v>
       </c>
       <c r="C55" t="s">
         <v>63</v>
@@ -2719,10 +2735,10 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>76</v>
+        <v>459</v>
       </c>
       <c r="C56" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D56" t="s">
         <v>61</v>
@@ -2733,7 +2749,7 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C57" t="s">
         <v>60</v>
@@ -2747,7 +2763,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>447</v>
+        <v>69</v>
       </c>
       <c r="C58" t="s">
         <v>60</v>
@@ -2761,10 +2777,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C59" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D59" t="s">
         <v>61</v>
@@ -2775,10 +2791,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>476</v>
+        <v>443</v>
       </c>
       <c r="C60" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D60" t="s">
         <v>61</v>
@@ -2789,7 +2805,7 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>235</v>
+        <v>476</v>
       </c>
       <c r="C61" t="s">
         <v>60</v>
@@ -2803,7 +2819,7 @@
         <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="C62" t="s">
         <v>60</v>
@@ -2817,7 +2833,7 @@
         <v>58</v>
       </c>
       <c r="B63" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="C63" t="s">
         <v>60</v>
@@ -2831,10 +2847,10 @@
         <v>58</v>
       </c>
       <c r="B64" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="C64" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D64" t="s">
         <v>61</v>
@@ -2845,10 +2861,10 @@
         <v>58</v>
       </c>
       <c r="B65" t="s">
-        <v>338</v>
+        <v>237</v>
       </c>
       <c r="C65" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D65" t="s">
         <v>61</v>
@@ -2859,7 +2875,7 @@
         <v>58</v>
       </c>
       <c r="B66" t="s">
-        <v>78</v>
+        <v>338</v>
       </c>
       <c r="C66" t="s">
         <v>60</v>
@@ -2873,10 +2889,10 @@
         <v>58</v>
       </c>
       <c r="B67" t="s">
-        <v>226</v>
+        <v>78</v>
       </c>
       <c r="C67" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D67" t="s">
         <v>61</v>
@@ -2887,7 +2903,7 @@
         <v>58</v>
       </c>
       <c r="B68" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="C68" t="s">
         <v>63</v>
@@ -2901,7 +2917,7 @@
         <v>58</v>
       </c>
       <c r="B69" t="s">
-        <v>454</v>
+        <v>208</v>
       </c>
       <c r="C69" t="s">
         <v>63</v>
@@ -2915,10 +2931,10 @@
         <v>58</v>
       </c>
       <c r="B70" t="s">
-        <v>238</v>
+        <v>454</v>
       </c>
       <c r="C70" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D70" t="s">
         <v>61</v>
@@ -2929,10 +2945,10 @@
         <v>58</v>
       </c>
       <c r="B71" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C71" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D71" t="s">
         <v>61</v>
@@ -2943,10 +2959,10 @@
         <v>58</v>
       </c>
       <c r="B72" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="C72" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D72" t="s">
         <v>61</v>
@@ -2957,7 +2973,7 @@
         <v>58</v>
       </c>
       <c r="B73" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C73" t="s">
         <v>60</v>
@@ -2971,10 +2987,10 @@
         <v>58</v>
       </c>
       <c r="B74" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="C74" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D74" t="s">
         <v>61</v>
@@ -2985,7 +3001,7 @@
         <v>58</v>
       </c>
       <c r="B75" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C75" t="s">
         <v>63</v>
@@ -2999,7 +3015,7 @@
         <v>58</v>
       </c>
       <c r="B76" t="s">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="C76" t="s">
         <v>63</v>
@@ -3013,7 +3029,7 @@
         <v>58</v>
       </c>
       <c r="B77" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C77" t="s">
         <v>63</v>
@@ -3027,10 +3043,10 @@
         <v>58</v>
       </c>
       <c r="B78" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="C78" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D78" t="s">
         <v>61</v>
@@ -3041,10 +3057,10 @@
         <v>58</v>
       </c>
       <c r="B79" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C79" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D79" t="s">
         <v>61</v>
@@ -3055,7 +3071,7 @@
         <v>58</v>
       </c>
       <c r="B80" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="C80" t="s">
         <v>63</v>
@@ -3069,7 +3085,7 @@
         <v>58</v>
       </c>
       <c r="B81" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="C81" t="s">
         <v>63</v>
@@ -3083,7 +3099,7 @@
         <v>58</v>
       </c>
       <c r="B82" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C82" t="s">
         <v>63</v>
@@ -3097,10 +3113,10 @@
         <v>58</v>
       </c>
       <c r="B83" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="C83" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D83" t="s">
         <v>61</v>
@@ -3111,10 +3127,10 @@
         <v>58</v>
       </c>
       <c r="B84" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="C84" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D84" t="s">
         <v>61</v>
@@ -3125,10 +3141,10 @@
         <v>58</v>
       </c>
       <c r="B85" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="C85" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D85" t="s">
         <v>61</v>
@@ -3139,7 +3155,7 @@
         <v>58</v>
       </c>
       <c r="B86" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C86" t="s">
         <v>60</v>
@@ -3153,10 +3169,10 @@
         <v>58</v>
       </c>
       <c r="B87" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C87" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D87" t="s">
         <v>61</v>
@@ -3167,10 +3183,10 @@
         <v>58</v>
       </c>
       <c r="B88" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="C88" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D88" t="s">
         <v>61</v>
@@ -3181,7 +3197,7 @@
         <v>58</v>
       </c>
       <c r="B89" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C89" t="s">
         <v>60</v>
@@ -3195,10 +3211,10 @@
         <v>58</v>
       </c>
       <c r="B90" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C90" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D90" t="s">
         <v>61</v>
@@ -3209,10 +3225,10 @@
         <v>58</v>
       </c>
       <c r="B91" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="C91" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D91" t="s">
         <v>61</v>
@@ -3223,7 +3239,7 @@
         <v>58</v>
       </c>
       <c r="B92" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="C92" t="s">
         <v>60</v>
@@ -3237,10 +3253,10 @@
         <v>58</v>
       </c>
       <c r="B93" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C93" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D93" t="s">
         <v>61</v>
@@ -3251,7 +3267,7 @@
         <v>58</v>
       </c>
       <c r="B94" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="C94" t="s">
         <v>63</v>
@@ -3265,10 +3281,10 @@
         <v>58</v>
       </c>
       <c r="B95" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="C95" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D95" t="s">
         <v>61</v>
@@ -3279,10 +3295,10 @@
         <v>58</v>
       </c>
       <c r="B96" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="C96" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D96" t="s">
         <v>61</v>
@@ -3293,7 +3309,7 @@
         <v>58</v>
       </c>
       <c r="B97" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="C97" t="s">
         <v>63</v>
@@ -3307,7 +3323,7 @@
         <v>58</v>
       </c>
       <c r="B98" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C98" t="s">
         <v>63</v>
@@ -3321,7 +3337,7 @@
         <v>58</v>
       </c>
       <c r="B99" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C99" t="s">
         <v>63</v>
@@ -3335,7 +3351,7 @@
         <v>58</v>
       </c>
       <c r="B100" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C100" t="s">
         <v>63</v>
@@ -3349,10 +3365,10 @@
         <v>58</v>
       </c>
       <c r="B101" t="s">
-        <v>85</v>
+        <v>227</v>
       </c>
       <c r="C101" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D101" t="s">
         <v>61</v>
@@ -3363,7 +3379,7 @@
         <v>58</v>
       </c>
       <c r="B102" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="C102" t="s">
         <v>60</v>
@@ -3377,10 +3393,10 @@
         <v>58</v>
       </c>
       <c r="B103" t="s">
-        <v>463</v>
+        <v>59</v>
       </c>
       <c r="C103" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D103" t="s">
         <v>61</v>
@@ -3391,10 +3407,10 @@
         <v>58</v>
       </c>
       <c r="B104" t="s">
-        <v>73</v>
+        <v>463</v>
       </c>
       <c r="C104" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D104" t="s">
         <v>61</v>
@@ -3405,7 +3421,7 @@
         <v>58</v>
       </c>
       <c r="B105" t="s">
-        <v>449</v>
+        <v>73</v>
       </c>
       <c r="C105" t="s">
         <v>60</v>
@@ -3419,10 +3435,10 @@
         <v>58</v>
       </c>
       <c r="B106" t="s">
-        <v>253</v>
+        <v>449</v>
       </c>
       <c r="C106" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D106" t="s">
         <v>61</v>
@@ -3433,10 +3449,10 @@
         <v>58</v>
       </c>
       <c r="B107" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C107" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D107" t="s">
         <v>61</v>
@@ -3447,7 +3463,7 @@
         <v>58</v>
       </c>
       <c r="B108" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C108" t="s">
         <v>60</v>
@@ -3461,10 +3477,10 @@
         <v>58</v>
       </c>
       <c r="B109" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C109" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D109" t="s">
         <v>61</v>
@@ -3475,7 +3491,7 @@
         <v>58</v>
       </c>
       <c r="B110" t="s">
-        <v>477</v>
+        <v>249</v>
       </c>
       <c r="C110" t="s">
         <v>63</v>
@@ -3489,7 +3505,7 @@
         <v>58</v>
       </c>
       <c r="B111" t="s">
-        <v>251</v>
+        <v>477</v>
       </c>
       <c r="C111" t="s">
         <v>63</v>
@@ -3503,7 +3519,7 @@
         <v>58</v>
       </c>
       <c r="B112" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C112" t="s">
         <v>63</v>
@@ -3517,7 +3533,7 @@
         <v>58</v>
       </c>
       <c r="B113" t="s">
-        <v>462</v>
+        <v>248</v>
       </c>
       <c r="C113" t="s">
         <v>63</v>
@@ -3531,10 +3547,10 @@
         <v>58</v>
       </c>
       <c r="B114" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C114" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D114" t="s">
         <v>61</v>
@@ -3545,10 +3561,10 @@
         <v>58</v>
       </c>
       <c r="B115" t="s">
-        <v>316</v>
+        <v>448</v>
       </c>
       <c r="C115" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D115" t="s">
         <v>61</v>
@@ -3559,10 +3575,10 @@
         <v>58</v>
       </c>
       <c r="B116" t="s">
-        <v>452</v>
+        <v>316</v>
       </c>
       <c r="C116" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D116" t="s">
         <v>61</v>
@@ -3573,10 +3589,10 @@
         <v>58</v>
       </c>
       <c r="B117" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
       <c r="C117" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D117" t="s">
         <v>61</v>
@@ -3587,10 +3603,10 @@
         <v>58</v>
       </c>
       <c r="B118" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="C118" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D118" t="s">
         <v>61</v>
@@ -3601,7 +3617,7 @@
         <v>58</v>
       </c>
       <c r="B119" t="s">
-        <v>204</v>
+        <v>464</v>
       </c>
       <c r="C119" t="s">
         <v>60</v>
@@ -3612,27 +3628,30 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="B120" t="s">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="C120" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D120" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B121" t="s">
-        <v>108</v>
+        <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>109</v>
+        <v>2</v>
+      </c>
+      <c r="D121" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
@@ -3640,10 +3659,10 @@
         <v>12</v>
       </c>
       <c r="B122" t="s">
-        <v>273</v>
+        <v>108</v>
       </c>
       <c r="C122" t="s">
-        <v>274</v>
+        <v>109</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
@@ -3651,10 +3670,10 @@
         <v>12</v>
       </c>
       <c r="B123" t="s">
-        <v>100</v>
+        <v>273</v>
       </c>
       <c r="C123" t="s">
-        <v>101</v>
+        <v>274</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
@@ -3662,10 +3681,10 @@
         <v>12</v>
       </c>
       <c r="B124" t="s">
-        <v>491</v>
+        <v>100</v>
       </c>
       <c r="C124" t="s">
-        <v>492</v>
+        <v>101</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
@@ -3673,10 +3692,10 @@
         <v>12</v>
       </c>
       <c r="B125" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
       <c r="C125" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
@@ -3684,10 +3703,10 @@
         <v>12</v>
       </c>
       <c r="B126" t="s">
-        <v>419</v>
+        <v>512</v>
       </c>
       <c r="C126" t="s">
-        <v>420</v>
+        <v>485</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
@@ -3695,10 +3714,10 @@
         <v>12</v>
       </c>
       <c r="B127" t="s">
-        <v>388</v>
+        <v>419</v>
       </c>
       <c r="C127" t="s">
-        <v>389</v>
+        <v>420</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
@@ -3706,10 +3725,10 @@
         <v>12</v>
       </c>
       <c r="B128" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C128" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
@@ -3717,10 +3736,10 @@
         <v>12</v>
       </c>
       <c r="B129" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="C129" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
@@ -3728,10 +3747,10 @@
         <v>12</v>
       </c>
       <c r="B130" t="s">
-        <v>306</v>
+        <v>401</v>
       </c>
       <c r="C130" t="s">
-        <v>278</v>
+        <v>402</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
@@ -3739,10 +3758,10 @@
         <v>12</v>
       </c>
       <c r="B131" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="C131" t="s">
-        <v>330</v>
+        <v>278</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
@@ -3750,10 +3769,10 @@
         <v>12</v>
       </c>
       <c r="B132" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C132" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
@@ -3761,7 +3780,7 @@
         <v>12</v>
       </c>
       <c r="B133" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="C133" t="s">
         <v>327</v>
@@ -3772,10 +3791,10 @@
         <v>12</v>
       </c>
       <c r="B134" t="s">
-        <v>128</v>
+        <v>326</v>
       </c>
       <c r="C134" t="s">
-        <v>129</v>
+        <v>327</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.15">
@@ -3783,10 +3802,10 @@
         <v>12</v>
       </c>
       <c r="B135" t="s">
-        <v>287</v>
+        <v>128</v>
       </c>
       <c r="C135" t="s">
-        <v>288</v>
+        <v>129</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.15">
@@ -3794,10 +3813,10 @@
         <v>12</v>
       </c>
       <c r="B136" t="s">
-        <v>484</v>
+        <v>287</v>
       </c>
       <c r="C136" t="s">
-        <v>485</v>
+        <v>288</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.15">
@@ -3805,10 +3824,10 @@
         <v>12</v>
       </c>
       <c r="B137" t="s">
-        <v>396</v>
+        <v>484</v>
       </c>
       <c r="C137" t="s">
-        <v>288</v>
+        <v>485</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.15">
@@ -3816,10 +3835,10 @@
         <v>12</v>
       </c>
       <c r="B138" t="s">
-        <v>34</v>
+        <v>396</v>
       </c>
       <c r="C138" t="s">
-        <v>35</v>
+        <v>288</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.15">
@@ -3827,10 +3846,10 @@
         <v>12</v>
       </c>
       <c r="B139" t="s">
-        <v>407</v>
+        <v>34</v>
       </c>
       <c r="C139" t="s">
-        <v>190</v>
+        <v>35</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.15">
@@ -3838,10 +3857,10 @@
         <v>12</v>
       </c>
       <c r="B140" t="s">
-        <v>267</v>
+        <v>407</v>
       </c>
       <c r="C140" t="s">
-        <v>268</v>
+        <v>190</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.15">
@@ -3849,10 +3868,10 @@
         <v>12</v>
       </c>
       <c r="B141" t="s">
-        <v>478</v>
+        <v>267</v>
       </c>
       <c r="C141" t="s">
-        <v>479</v>
+        <v>268</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.15">
@@ -3860,10 +3879,10 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>372</v>
+        <v>478</v>
       </c>
       <c r="C142" t="s">
-        <v>373</v>
+        <v>479</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.15">
@@ -3871,10 +3890,10 @@
         <v>12</v>
       </c>
       <c r="B143" t="s">
-        <v>299</v>
+        <v>372</v>
       </c>
       <c r="C143" t="s">
-        <v>300</v>
+        <v>373</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.15">
@@ -3882,10 +3901,10 @@
         <v>12</v>
       </c>
       <c r="B144" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="C144" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.15">
@@ -3893,10 +3912,10 @@
         <v>12</v>
       </c>
       <c r="B145" t="s">
-        <v>13</v>
+        <v>277</v>
       </c>
       <c r="C145" t="s">
-        <v>14</v>
+        <v>278</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.15">
@@ -3904,10 +3923,10 @@
         <v>12</v>
       </c>
       <c r="B146" t="s">
-        <v>366</v>
+        <v>13</v>
       </c>
       <c r="C146" t="s">
-        <v>367</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.15">
@@ -3915,10 +3934,10 @@
         <v>12</v>
       </c>
       <c r="B147" t="s">
-        <v>265</v>
+        <v>366</v>
       </c>
       <c r="C147" t="s">
-        <v>266</v>
+        <v>367</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.15">
@@ -3926,10 +3945,10 @@
         <v>12</v>
       </c>
       <c r="B148" t="s">
-        <v>310</v>
+        <v>265</v>
       </c>
       <c r="C148" t="s">
-        <v>311</v>
+        <v>266</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.15">
@@ -3937,7 +3956,7 @@
         <v>12</v>
       </c>
       <c r="B149" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="C149" t="s">
         <v>311</v>
@@ -3948,10 +3967,10 @@
         <v>12</v>
       </c>
       <c r="B150" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="C150" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.15">
@@ -3959,10 +3978,10 @@
         <v>12</v>
       </c>
       <c r="B151" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C151" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.15">
@@ -3970,10 +3989,10 @@
         <v>12</v>
       </c>
       <c r="B152" t="s">
-        <v>436</v>
+        <v>322</v>
       </c>
       <c r="C152" t="s">
-        <v>437</v>
+        <v>323</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.15">
@@ -3981,10 +4000,10 @@
         <v>12</v>
       </c>
       <c r="B153" t="s">
-        <v>513</v>
+        <v>436</v>
       </c>
       <c r="C153" t="s">
-        <v>159</v>
+        <v>437</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.15">
@@ -3992,10 +4011,10 @@
         <v>12</v>
       </c>
       <c r="B154" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="C154" t="s">
-        <v>498</v>
+        <v>159</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.15">
@@ -4003,10 +4022,10 @@
         <v>12</v>
       </c>
       <c r="B155" t="s">
-        <v>328</v>
+        <v>497</v>
       </c>
       <c r="C155" t="s">
-        <v>328</v>
+        <v>498</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.15">
@@ -4014,10 +4033,10 @@
         <v>12</v>
       </c>
       <c r="B156" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="C156" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.15">
@@ -4025,10 +4044,10 @@
         <v>12</v>
       </c>
       <c r="B157" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C157" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.15">
@@ -4036,7 +4055,7 @@
         <v>12</v>
       </c>
       <c r="B158" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="C158" t="s">
         <v>319</v>
@@ -4047,10 +4066,10 @@
         <v>12</v>
       </c>
       <c r="B159" t="s">
-        <v>92</v>
+        <v>318</v>
       </c>
       <c r="C159" t="s">
-        <v>93</v>
+        <v>319</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.15">
@@ -4058,10 +4077,10 @@
         <v>12</v>
       </c>
       <c r="B160" t="s">
-        <v>510</v>
+        <v>92</v>
       </c>
       <c r="C160" t="s">
-        <v>511</v>
+        <v>93</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.15">
@@ -4069,10 +4088,10 @@
         <v>12</v>
       </c>
       <c r="B161" t="s">
-        <v>374</v>
+        <v>510</v>
       </c>
       <c r="C161" t="s">
-        <v>375</v>
+        <v>511</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.15">
@@ -4080,10 +4099,10 @@
         <v>12</v>
       </c>
       <c r="B162" t="s">
-        <v>116</v>
+        <v>374</v>
       </c>
       <c r="C162" t="s">
-        <v>117</v>
+        <v>375</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.15">
@@ -4091,10 +4110,10 @@
         <v>12</v>
       </c>
       <c r="B163" t="s">
-        <v>480</v>
+        <v>116</v>
       </c>
       <c r="C163" t="s">
-        <v>481</v>
+        <v>117</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.15">
@@ -4102,10 +4121,10 @@
         <v>12</v>
       </c>
       <c r="B164" t="s">
-        <v>56</v>
+        <v>480</v>
       </c>
       <c r="C164" t="s">
-        <v>57</v>
+        <v>481</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.15">
@@ -4113,10 +4132,10 @@
         <v>12</v>
       </c>
       <c r="B165" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C165" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.15">
@@ -4124,10 +4143,10 @@
         <v>12</v>
       </c>
       <c r="B166" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="C166" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.15">
@@ -4135,10 +4154,10 @@
         <v>12</v>
       </c>
       <c r="B167" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="C167" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.15">
@@ -4146,10 +4165,10 @@
         <v>12</v>
       </c>
       <c r="B168" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C168" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.15">
@@ -4157,10 +4176,10 @@
         <v>12</v>
       </c>
       <c r="B169" t="s">
-        <v>361</v>
+        <v>96</v>
       </c>
       <c r="C169" t="s">
-        <v>362</v>
+        <v>97</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.15">
@@ -4168,10 +4187,10 @@
         <v>12</v>
       </c>
       <c r="B170" t="s">
-        <v>20</v>
+        <v>361</v>
       </c>
       <c r="C170" t="s">
-        <v>21</v>
+        <v>362</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.15">
@@ -4179,10 +4198,10 @@
         <v>12</v>
       </c>
       <c r="B171" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="C171" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.15">
@@ -4190,7 +4209,7 @@
         <v>12</v>
       </c>
       <c r="B172" t="s">
-        <v>514</v>
+        <v>120</v>
       </c>
       <c r="C172" t="s">
         <v>121</v>
@@ -4201,10 +4220,10 @@
         <v>12</v>
       </c>
       <c r="B173" t="s">
-        <v>122</v>
+        <v>514</v>
       </c>
       <c r="C173" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.15">
@@ -4212,10 +4231,10 @@
         <v>12</v>
       </c>
       <c r="B174" t="s">
-        <v>359</v>
+        <v>122</v>
       </c>
       <c r="C174" t="s">
-        <v>360</v>
+        <v>123</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.15">
@@ -4223,10 +4242,10 @@
         <v>12</v>
       </c>
       <c r="B175" t="s">
-        <v>457</v>
+        <v>359</v>
       </c>
       <c r="C175" t="s">
-        <v>458</v>
+        <v>360</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.15">
@@ -4234,10 +4253,10 @@
         <v>12</v>
       </c>
       <c r="B176" t="s">
-        <v>104</v>
+        <v>457</v>
       </c>
       <c r="C176" t="s">
-        <v>105</v>
+        <v>458</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.15">
@@ -4245,10 +4264,10 @@
         <v>12</v>
       </c>
       <c r="B177" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C177" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.15">
@@ -4256,10 +4275,10 @@
         <v>12</v>
       </c>
       <c r="B178" t="s">
-        <v>483</v>
+        <v>112</v>
       </c>
       <c r="C178" t="s">
-        <v>458</v>
+        <v>113</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.15">
@@ -4267,10 +4286,10 @@
         <v>12</v>
       </c>
       <c r="B179" t="s">
-        <v>405</v>
+        <v>483</v>
       </c>
       <c r="C179" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.15">
@@ -4278,10 +4297,10 @@
         <v>12</v>
       </c>
       <c r="B180" t="s">
-        <v>118</v>
+        <v>405</v>
       </c>
       <c r="C180" t="s">
-        <v>119</v>
+        <v>406</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.15">
@@ -4289,10 +4308,10 @@
         <v>12</v>
       </c>
       <c r="B181" t="s">
-        <v>382</v>
+        <v>118</v>
       </c>
       <c r="C181" t="s">
-        <v>383</v>
+        <v>119</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.15">
@@ -4311,10 +4330,10 @@
         <v>12</v>
       </c>
       <c r="B183" t="s">
-        <v>102</v>
+        <v>382</v>
       </c>
       <c r="C183" t="s">
-        <v>103</v>
+        <v>383</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.15">
@@ -4322,10 +4341,10 @@
         <v>12</v>
       </c>
       <c r="B184" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="C184" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.15">
@@ -4333,10 +4352,10 @@
         <v>12</v>
       </c>
       <c r="B185" t="s">
-        <v>346</v>
+        <v>126</v>
       </c>
       <c r="C185" t="s">
-        <v>347</v>
+        <v>127</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.15">
@@ -4344,10 +4363,10 @@
         <v>12</v>
       </c>
       <c r="B186" t="s">
-        <v>48</v>
+        <v>346</v>
       </c>
       <c r="C186" t="s">
-        <v>49</v>
+        <v>347</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.15">
@@ -4355,10 +4374,10 @@
         <v>12</v>
       </c>
       <c r="B187" t="s">
-        <v>504</v>
+        <v>48</v>
       </c>
       <c r="C187" t="s">
-        <v>505</v>
+        <v>49</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.15">
@@ -4366,10 +4385,10 @@
         <v>12</v>
       </c>
       <c r="B188" t="s">
-        <v>263</v>
+        <v>504</v>
       </c>
       <c r="C188" t="s">
-        <v>264</v>
+        <v>505</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.15">
@@ -4377,10 +4396,10 @@
         <v>12</v>
       </c>
       <c r="B189" t="s">
-        <v>124</v>
+        <v>263</v>
       </c>
       <c r="C189" t="s">
-        <v>125</v>
+        <v>264</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.15">
@@ -4388,10 +4407,10 @@
         <v>12</v>
       </c>
       <c r="B190" t="s">
-        <v>261</v>
+        <v>124</v>
       </c>
       <c r="C190" t="s">
-        <v>262</v>
+        <v>125</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.15">
@@ -4399,10 +4418,10 @@
         <v>12</v>
       </c>
       <c r="B191" t="s">
-        <v>495</v>
+        <v>261</v>
       </c>
       <c r="C191" t="s">
-        <v>496</v>
+        <v>262</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.15">
@@ -4410,10 +4429,10 @@
         <v>12</v>
       </c>
       <c r="B192" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C192" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.15">
@@ -4421,10 +4440,10 @@
         <v>12</v>
       </c>
       <c r="B193" t="s">
-        <v>150</v>
+        <v>493</v>
       </c>
       <c r="C193" t="s">
-        <v>181</v>
+        <v>494</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.15">
@@ -4432,10 +4451,10 @@
         <v>12</v>
       </c>
       <c r="B194" t="s">
-        <v>409</v>
+        <v>150</v>
       </c>
       <c r="C194" t="s">
-        <v>410</v>
+        <v>181</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.15">
@@ -4443,10 +4462,10 @@
         <v>12</v>
       </c>
       <c r="B195" t="s">
-        <v>154</v>
+        <v>409</v>
       </c>
       <c r="C195" t="s">
-        <v>155</v>
+        <v>410</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.15">
@@ -4454,10 +4473,10 @@
         <v>12</v>
       </c>
       <c r="B196" t="s">
-        <v>269</v>
+        <v>154</v>
       </c>
       <c r="C196" t="s">
-        <v>270</v>
+        <v>155</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.15">
@@ -4465,10 +4484,10 @@
         <v>12</v>
       </c>
       <c r="B197" t="s">
-        <v>499</v>
+        <v>269</v>
       </c>
       <c r="C197" t="s">
-        <v>500</v>
+        <v>270</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.15">
@@ -4476,10 +4495,10 @@
         <v>12</v>
       </c>
       <c r="B198" t="s">
-        <v>320</v>
+        <v>499</v>
       </c>
       <c r="C198" t="s">
-        <v>321</v>
+        <v>500</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.15">
@@ -4487,10 +4506,10 @@
         <v>12</v>
       </c>
       <c r="B199" t="s">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="C199" t="s">
-        <v>60</v>
+        <v>321</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.15">
@@ -4498,10 +4517,10 @@
         <v>12</v>
       </c>
       <c r="B200" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="C200" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.15">
@@ -4509,10 +4528,10 @@
         <v>12</v>
       </c>
       <c r="B201" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C201" t="s">
-        <v>408</v>
+        <v>41</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.15">
@@ -4520,10 +4539,10 @@
         <v>12</v>
       </c>
       <c r="B202" t="s">
-        <v>433</v>
+        <v>44</v>
       </c>
       <c r="C202" t="s">
-        <v>37</v>
+        <v>408</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.15">
@@ -4531,7 +4550,7 @@
         <v>12</v>
       </c>
       <c r="B203" t="s">
-        <v>36</v>
+        <v>433</v>
       </c>
       <c r="C203" t="s">
         <v>37</v>
@@ -4542,10 +4561,10 @@
         <v>12</v>
       </c>
       <c r="B204" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="C204" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.15">
@@ -4553,10 +4572,10 @@
         <v>12</v>
       </c>
       <c r="B205" t="s">
-        <v>199</v>
+        <v>84</v>
       </c>
       <c r="C205" t="s">
-        <v>200</v>
+        <v>63</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.15">
@@ -4564,10 +4583,10 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C206" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.15">
@@ -4575,10 +4594,10 @@
         <v>12</v>
       </c>
       <c r="B207" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C207" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.15">
@@ -4586,10 +4605,10 @@
         <v>12</v>
       </c>
       <c r="B208" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C208" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.15">
@@ -4597,10 +4616,10 @@
         <v>12</v>
       </c>
       <c r="B209" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C209" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.15">
@@ -4608,10 +4627,10 @@
         <v>12</v>
       </c>
       <c r="B210" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C210" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.15">
@@ -4619,10 +4638,10 @@
         <v>12</v>
       </c>
       <c r="B211" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C211" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.15">
@@ -4630,10 +4649,10 @@
         <v>12</v>
       </c>
       <c r="B212" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C212" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.15">
@@ -4641,7 +4660,7 @@
         <v>12</v>
       </c>
       <c r="B213" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="C213" t="s">
         <v>171</v>
@@ -4652,10 +4671,10 @@
         <v>12</v>
       </c>
       <c r="B214" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="C214" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.15">
@@ -4663,10 +4682,10 @@
         <v>12</v>
       </c>
       <c r="B215" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C215" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.15">
@@ -4674,10 +4693,10 @@
         <v>12</v>
       </c>
       <c r="B216" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="C216" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.15">
@@ -4685,10 +4704,10 @@
         <v>12</v>
       </c>
       <c r="B217" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="C217" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.15">
@@ -4696,7 +4715,7 @@
         <v>12</v>
       </c>
       <c r="B218" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="C218" t="s">
         <v>183</v>
@@ -4707,10 +4726,10 @@
         <v>12</v>
       </c>
       <c r="B219" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C219" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.15">
@@ -4718,10 +4737,10 @@
         <v>12</v>
       </c>
       <c r="B220" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C220" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.15">
@@ -4729,7 +4748,7 @@
         <v>12</v>
       </c>
       <c r="B221" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="C221" t="s">
         <v>159</v>
@@ -4740,10 +4759,10 @@
         <v>12</v>
       </c>
       <c r="B222" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="C222" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.15">
@@ -4751,10 +4770,10 @@
         <v>12</v>
       </c>
       <c r="B223" t="s">
-        <v>301</v>
+        <v>110</v>
       </c>
       <c r="C223" t="s">
-        <v>302</v>
+        <v>111</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.15">
@@ -4762,10 +4781,10 @@
         <v>12</v>
       </c>
       <c r="B224" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C224" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.15">
@@ -4773,10 +4792,10 @@
         <v>12</v>
       </c>
       <c r="B225" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="C225" t="s">
-        <v>334</v>
+        <v>300</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.15">
@@ -4784,10 +4803,10 @@
         <v>12</v>
       </c>
       <c r="B226" t="s">
-        <v>70</v>
+        <v>333</v>
       </c>
       <c r="C226" t="s">
-        <v>71</v>
+        <v>334</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.15">
@@ -4795,10 +4814,10 @@
         <v>12</v>
       </c>
       <c r="B227" t="s">
-        <v>489</v>
+        <v>70</v>
       </c>
       <c r="C227" t="s">
-        <v>490</v>
+        <v>71</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.15">
@@ -4806,10 +4825,10 @@
         <v>12</v>
       </c>
       <c r="B228" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="C228" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.15">
@@ -4817,10 +4836,10 @@
         <v>12</v>
       </c>
       <c r="B229" t="s">
-        <v>370</v>
+        <v>508</v>
       </c>
       <c r="C229" t="s">
-        <v>371</v>
+        <v>509</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.15">
@@ -4828,10 +4847,10 @@
         <v>12</v>
       </c>
       <c r="B230" t="s">
-        <v>486</v>
+        <v>370</v>
       </c>
       <c r="C230" t="s">
-        <v>99</v>
+        <v>371</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.15">
@@ -4839,7 +4858,7 @@
         <v>12</v>
       </c>
       <c r="B231" t="s">
-        <v>98</v>
+        <v>486</v>
       </c>
       <c r="C231" t="s">
         <v>99</v>
@@ -4850,7 +4869,7 @@
         <v>12</v>
       </c>
       <c r="B232" t="s">
-        <v>469</v>
+        <v>98</v>
       </c>
       <c r="C232" t="s">
         <v>99</v>
@@ -4861,10 +4880,10 @@
         <v>12</v>
       </c>
       <c r="B233" t="s">
-        <v>517</v>
+        <v>469</v>
       </c>
       <c r="C233" t="s">
-        <v>518</v>
+        <v>99</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.15">
@@ -4872,10 +4891,10 @@
         <v>12</v>
       </c>
       <c r="B234" t="s">
-        <v>197</v>
+        <v>517</v>
       </c>
       <c r="C234" t="s">
-        <v>198</v>
+        <v>518</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.15">
@@ -4883,10 +4902,10 @@
         <v>12</v>
       </c>
       <c r="B235" t="s">
-        <v>487</v>
+        <v>197</v>
       </c>
       <c r="C235" t="s">
-        <v>488</v>
+        <v>198</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.15">
@@ -4894,10 +4913,10 @@
         <v>12</v>
       </c>
       <c r="B236" t="s">
-        <v>259</v>
+        <v>487</v>
       </c>
       <c r="C236" t="s">
-        <v>260</v>
+        <v>488</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.15">
@@ -4905,10 +4924,10 @@
         <v>12</v>
       </c>
       <c r="B237" t="s">
-        <v>342</v>
+        <v>259</v>
       </c>
       <c r="C237" t="s">
-        <v>343</v>
+        <v>260</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.15">
@@ -4916,10 +4935,10 @@
         <v>12</v>
       </c>
       <c r="B238" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C238" t="s">
-        <v>274</v>
+        <v>343</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.15">
@@ -4927,10 +4946,10 @@
         <v>12</v>
       </c>
       <c r="B239" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="C239" t="s">
-        <v>315</v>
+        <v>274</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.15">
@@ -4938,10 +4957,10 @@
         <v>12</v>
       </c>
       <c r="B240" t="s">
-        <v>187</v>
+        <v>314</v>
       </c>
       <c r="C240" t="s">
-        <v>188</v>
+        <v>315</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.15">
@@ -4949,10 +4968,10 @@
         <v>12</v>
       </c>
       <c r="B241" t="s">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="C241" t="s">
-        <v>89</v>
+        <v>188</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.15">
@@ -4960,10 +4979,10 @@
         <v>12</v>
       </c>
       <c r="B242" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="C242" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.15">
@@ -4971,10 +4990,10 @@
         <v>12</v>
       </c>
       <c r="B243" t="s">
-        <v>172</v>
+        <v>22</v>
       </c>
       <c r="C243" t="s">
-        <v>173</v>
+        <v>14</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.15">
@@ -4982,10 +5001,10 @@
         <v>12</v>
       </c>
       <c r="B244" t="s">
-        <v>503</v>
+        <v>172</v>
       </c>
       <c r="C244" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.15">
@@ -4993,10 +5012,10 @@
         <v>12</v>
       </c>
       <c r="B245" t="s">
-        <v>94</v>
+        <v>503</v>
       </c>
       <c r="C245" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.15">
@@ -5004,10 +5023,10 @@
         <v>12</v>
       </c>
       <c r="B246" t="s">
-        <v>506</v>
+        <v>94</v>
       </c>
       <c r="C246" t="s">
-        <v>507</v>
+        <v>95</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.15">
@@ -5015,10 +5034,10 @@
         <v>12</v>
       </c>
       <c r="B247" t="s">
-        <v>54</v>
+        <v>506</v>
       </c>
       <c r="C247" t="s">
-        <v>55</v>
+        <v>507</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.15">
@@ -5026,24 +5045,21 @@
         <v>12</v>
       </c>
       <c r="B248" t="s">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="C248" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B249" t="s">
-        <v>283</v>
+        <v>106</v>
       </c>
       <c r="C249" t="s">
-        <v>16</v>
-      </c>
-      <c r="D249" t="s">
-        <v>284</v>
+        <v>107</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.15">
@@ -5051,13 +5067,13 @@
         <v>4</v>
       </c>
       <c r="B250" t="s">
-        <v>399</v>
+        <v>283</v>
       </c>
       <c r="C250" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D250" t="s">
-        <v>400</v>
+        <v>284</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.15">
@@ -5065,13 +5081,13 @@
         <v>4</v>
       </c>
       <c r="B251" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="C251" t="s">
         <v>6</v>
       </c>
       <c r="D251" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.15">
@@ -5079,13 +5095,13 @@
         <v>4</v>
       </c>
       <c r="B252" t="s">
-        <v>293</v>
+        <v>394</v>
       </c>
       <c r="C252" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D252" t="s">
-        <v>294</v>
+        <v>395</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.15">
@@ -5093,13 +5109,13 @@
         <v>4</v>
       </c>
       <c r="B253" t="s">
-        <v>411</v>
+        <v>293</v>
       </c>
       <c r="C253" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D253" t="s">
-        <v>412</v>
+        <v>294</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.15">
@@ -5107,13 +5123,13 @@
         <v>4</v>
       </c>
       <c r="B254" t="s">
-        <v>281</v>
+        <v>411</v>
       </c>
       <c r="C254" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D254" t="s">
-        <v>282</v>
+        <v>412</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.15">
@@ -5121,13 +5137,13 @@
         <v>4</v>
       </c>
       <c r="B255" t="s">
-        <v>144</v>
+        <v>281</v>
       </c>
       <c r="C255" t="s">
         <v>16</v>
       </c>
       <c r="D255" t="s">
-        <v>145</v>
+        <v>282</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.15">
@@ -5135,13 +5151,13 @@
         <v>4</v>
       </c>
       <c r="B256" t="s">
-        <v>403</v>
+        <v>144</v>
       </c>
       <c r="C256" t="s">
         <v>16</v>
       </c>
       <c r="D256" t="s">
-        <v>404</v>
+        <v>145</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.15">
@@ -5149,13 +5165,13 @@
         <v>4</v>
       </c>
       <c r="B257" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="C257" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D257" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.15">
@@ -5163,13 +5179,13 @@
         <v>4</v>
       </c>
       <c r="B258" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C258" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D258" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.15">
@@ -5177,13 +5193,13 @@
         <v>4</v>
       </c>
       <c r="B259" t="s">
-        <v>160</v>
+        <v>413</v>
       </c>
       <c r="C259" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D259" t="s">
-        <v>161</v>
+        <v>414</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.15">
@@ -5191,13 +5207,13 @@
         <v>4</v>
       </c>
       <c r="B260" t="s">
-        <v>244</v>
+        <v>160</v>
       </c>
       <c r="C260" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D260" t="s">
-        <v>245</v>
+        <v>161</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.15">
@@ -5208,10 +5224,10 @@
         <v>244</v>
       </c>
       <c r="C261" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D261" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.15">
@@ -5219,13 +5235,13 @@
         <v>4</v>
       </c>
       <c r="B262" t="s">
-        <v>415</v>
+        <v>244</v>
       </c>
       <c r="C262" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D262" t="s">
-        <v>416</v>
+        <v>246</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.15">
@@ -5233,13 +5249,13 @@
         <v>4</v>
       </c>
       <c r="B263" t="s">
-        <v>291</v>
+        <v>415</v>
       </c>
       <c r="C263" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D263" t="s">
-        <v>292</v>
+        <v>416</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.15">
@@ -5247,13 +5263,13 @@
         <v>4</v>
       </c>
       <c r="B264" t="s">
-        <v>384</v>
+        <v>291</v>
       </c>
       <c r="C264" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D264" t="s">
-        <v>385</v>
+        <v>292</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.15">
@@ -5261,13 +5277,13 @@
         <v>4</v>
       </c>
       <c r="B265" t="s">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="C265" t="s">
         <v>32</v>
       </c>
       <c r="D265" t="s">
-        <v>358</v>
+        <v>385</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.15">
@@ -5275,13 +5291,13 @@
         <v>4</v>
       </c>
       <c r="B266" t="s">
-        <v>162</v>
+        <v>357</v>
       </c>
       <c r="C266" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D266" t="s">
-        <v>163</v>
+        <v>358</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.15">
@@ -5289,13 +5305,13 @@
         <v>4</v>
       </c>
       <c r="B267" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C267" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D267" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.15">
@@ -5303,13 +5319,13 @@
         <v>4</v>
       </c>
       <c r="B268" t="s">
-        <v>390</v>
+        <v>166</v>
       </c>
       <c r="C268" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D268" t="s">
-        <v>391</v>
+        <v>167</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.15">
@@ -5317,13 +5333,13 @@
         <v>4</v>
       </c>
       <c r="B269" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="C269" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D269" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.15">
@@ -5331,13 +5347,13 @@
         <v>4</v>
       </c>
       <c r="B270" t="s">
-        <v>297</v>
+        <v>352</v>
       </c>
       <c r="C270" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D270" t="s">
-        <v>298</v>
+        <v>353</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.15">
@@ -5345,13 +5361,13 @@
         <v>4</v>
       </c>
       <c r="B271" t="s">
-        <v>27</v>
+        <v>297</v>
       </c>
       <c r="C271" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D271" t="s">
-        <v>28</v>
+        <v>298</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.15">
@@ -5359,13 +5375,13 @@
         <v>4</v>
       </c>
       <c r="B272" t="s">
-        <v>434</v>
+        <v>27</v>
       </c>
       <c r="C272" t="s">
         <v>16</v>
       </c>
       <c r="D272" t="s">
-        <v>435</v>
+        <v>28</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.15">
@@ -5373,13 +5389,13 @@
         <v>4</v>
       </c>
       <c r="B273" t="s">
-        <v>152</v>
+        <v>434</v>
       </c>
       <c r="C273" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D273" t="s">
-        <v>153</v>
+        <v>435</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.15">
@@ -5387,13 +5403,13 @@
         <v>4</v>
       </c>
       <c r="B274" t="s">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="C274" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D274" t="s">
-        <v>51</v>
+        <v>153</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.15">
@@ -5401,13 +5417,13 @@
         <v>4</v>
       </c>
       <c r="B275" t="s">
-        <v>378</v>
+        <v>50</v>
       </c>
       <c r="C275" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D275" t="s">
-        <v>379</v>
+        <v>51</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.15">
@@ -5415,13 +5431,13 @@
         <v>4</v>
       </c>
       <c r="B276" t="s">
-        <v>295</v>
+        <v>378</v>
       </c>
       <c r="C276" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D276" t="s">
-        <v>296</v>
+        <v>379</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.15">
@@ -5429,13 +5445,13 @@
         <v>4</v>
       </c>
       <c r="B277" t="s">
-        <v>421</v>
+        <v>295</v>
       </c>
       <c r="C277" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D277" t="s">
-        <v>422</v>
+        <v>296</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.15">
@@ -5443,13 +5459,13 @@
         <v>4</v>
       </c>
       <c r="B278" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C278" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D278" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.15">
@@ -5457,13 +5473,13 @@
         <v>4</v>
       </c>
       <c r="B279" t="s">
-        <v>368</v>
+        <v>423</v>
       </c>
       <c r="C279" t="s">
         <v>8</v>
       </c>
       <c r="D279" t="s">
-        <v>369</v>
+        <v>424</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.15">
@@ -5471,13 +5487,13 @@
         <v>4</v>
       </c>
       <c r="B280" t="s">
-        <v>23</v>
+        <v>368</v>
       </c>
       <c r="C280" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D280" t="s">
-        <v>24</v>
+        <v>369</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.15">
@@ -5485,13 +5501,13 @@
         <v>4</v>
       </c>
       <c r="B281" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C281" t="s">
         <v>16</v>
       </c>
       <c r="D281" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.15">
@@ -5499,13 +5515,13 @@
         <v>4</v>
       </c>
       <c r="B282" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C282" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D282" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.15">
@@ -5513,13 +5529,13 @@
         <v>4</v>
       </c>
       <c r="B283" t="s">
-        <v>354</v>
+        <v>7</v>
       </c>
       <c r="C283" t="s">
-        <v>355</v>
+        <v>8</v>
       </c>
       <c r="D283" t="s">
-        <v>356</v>
+        <v>9</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.15">
@@ -5527,13 +5543,13 @@
         <v>4</v>
       </c>
       <c r="B284" t="s">
-        <v>501</v>
+        <v>354</v>
       </c>
       <c r="C284" t="s">
-        <v>8</v>
+        <v>355</v>
       </c>
       <c r="D284" t="s">
-        <v>502</v>
+        <v>356</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.15">
@@ -5541,13 +5557,13 @@
         <v>4</v>
       </c>
       <c r="B285" t="s">
-        <v>52</v>
+        <v>501</v>
       </c>
       <c r="C285" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D285" t="s">
-        <v>53</v>
+        <v>502</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.15">
@@ -5555,13 +5571,13 @@
         <v>4</v>
       </c>
       <c r="B286" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="C286" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D286" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.15">
@@ -5569,13 +5585,13 @@
         <v>4</v>
       </c>
       <c r="B287" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="C287" t="s">
         <v>32</v>
       </c>
       <c r="D287" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.15">
@@ -5583,13 +5599,13 @@
         <v>4</v>
       </c>
       <c r="B288" t="s">
-        <v>275</v>
+        <v>31</v>
       </c>
       <c r="C288" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D288" t="s">
-        <v>276</v>
+        <v>33</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.15">
@@ -5597,13 +5613,13 @@
         <v>4</v>
       </c>
       <c r="B289" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="C289" t="s">
         <v>6</v>
       </c>
       <c r="D289" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.15">
@@ -5611,13 +5627,13 @@
         <v>4</v>
       </c>
       <c r="B290" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C290" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D290" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.15">
@@ -5625,13 +5641,13 @@
         <v>4</v>
       </c>
       <c r="B291" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="C291" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D291" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.15">
@@ -5639,13 +5655,13 @@
         <v>4</v>
       </c>
       <c r="B292" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="C292" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D292" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.15">
@@ -5653,13 +5669,13 @@
         <v>4</v>
       </c>
       <c r="B293" t="s">
-        <v>138</v>
+        <v>289</v>
       </c>
       <c r="C293" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D293" t="s">
-        <v>139</v>
+        <v>290</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.15">
@@ -5667,13 +5683,13 @@
         <v>4</v>
       </c>
       <c r="B294" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C294" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D294" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.15">
@@ -5681,13 +5697,13 @@
         <v>4</v>
       </c>
       <c r="B295" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C295" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D295" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.15">
@@ -5695,13 +5711,13 @@
         <v>4</v>
       </c>
       <c r="B296" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="C296" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D296" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.15">
@@ -5709,13 +5725,13 @@
         <v>4</v>
       </c>
       <c r="B297" t="s">
-        <v>44</v>
+        <v>202</v>
       </c>
       <c r="C297" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D297" t="s">
-        <v>45</v>
+        <v>203</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.15">
@@ -5723,13 +5739,13 @@
         <v>4</v>
       </c>
       <c r="B298" t="s">
-        <v>431</v>
+        <v>44</v>
       </c>
       <c r="C298" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D298" t="s">
-        <v>432</v>
+        <v>45</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.15">
@@ -5737,13 +5753,13 @@
         <v>4</v>
       </c>
       <c r="B299" t="s">
-        <v>156</v>
+        <v>431</v>
       </c>
       <c r="C299" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D299" t="s">
-        <v>157</v>
+        <v>432</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.15">
@@ -5751,13 +5767,13 @@
         <v>4</v>
       </c>
       <c r="B300" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="C300" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D300" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.15">
@@ -5765,13 +5781,13 @@
         <v>4</v>
       </c>
       <c r="B301" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="C301" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D301" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.15">
@@ -5779,13 +5795,13 @@
         <v>4</v>
       </c>
       <c r="B302" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C302" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D302" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.15">
@@ -5793,13 +5809,13 @@
         <v>4</v>
       </c>
       <c r="B303" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C303" t="s">
         <v>8</v>
       </c>
       <c r="D303" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.15">
@@ -5807,13 +5823,13 @@
         <v>4</v>
       </c>
       <c r="B304" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C304" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D304" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.15">
@@ -5821,13 +5837,13 @@
         <v>4</v>
       </c>
       <c r="B305" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C305" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D305" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.15">
@@ -5835,13 +5851,13 @@
         <v>4</v>
       </c>
       <c r="B306" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="C306" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D306" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.15">
@@ -5849,13 +5865,13 @@
         <v>4</v>
       </c>
       <c r="B307" t="s">
-        <v>397</v>
+        <v>164</v>
       </c>
       <c r="C307" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D307" t="s">
-        <v>398</v>
+        <v>165</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.15">
@@ -5863,13 +5879,13 @@
         <v>4</v>
       </c>
       <c r="B308" t="s">
-        <v>136</v>
+        <v>397</v>
       </c>
       <c r="C308" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D308" t="s">
-        <v>137</v>
+        <v>398</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.15">
@@ -5877,13 +5893,13 @@
         <v>4</v>
       </c>
       <c r="B309" t="s">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="C309" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D309" t="s">
-        <v>39</v>
+        <v>137</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.15">
@@ -5891,13 +5907,13 @@
         <v>4</v>
       </c>
       <c r="B310" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C310" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D310" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.15">
@@ -5905,13 +5921,13 @@
         <v>4</v>
       </c>
       <c r="B311" t="s">
-        <v>350</v>
+        <v>29</v>
       </c>
       <c r="C311" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D311" t="s">
-        <v>351</v>
+        <v>30</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.15">
@@ -5919,13 +5935,13 @@
         <v>4</v>
       </c>
       <c r="B312" t="s">
-        <v>46</v>
+        <v>350</v>
       </c>
       <c r="C312" t="s">
         <v>16</v>
       </c>
       <c r="D312" t="s">
-        <v>47</v>
+        <v>351</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.15">
@@ -5933,13 +5949,13 @@
         <v>4</v>
       </c>
       <c r="B313" t="s">
-        <v>482</v>
+        <v>46</v>
       </c>
       <c r="C313" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D313" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.15">
@@ -5947,13 +5963,13 @@
         <v>4</v>
       </c>
       <c r="B314" t="s">
-        <v>376</v>
+        <v>482</v>
       </c>
       <c r="C314" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D314" t="s">
-        <v>377</v>
+        <v>131</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.15">
@@ -5961,13 +5977,13 @@
         <v>4</v>
       </c>
       <c r="B315" t="s">
-        <v>427</v>
+        <v>376</v>
       </c>
       <c r="C315" t="s">
         <v>16</v>
       </c>
       <c r="D315" t="s">
-        <v>428</v>
+        <v>377</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.15">
@@ -5975,13 +5991,13 @@
         <v>4</v>
       </c>
       <c r="B316" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="C316" t="s">
         <v>16</v>
       </c>
       <c r="D316" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.15">
@@ -5989,13 +6005,13 @@
         <v>4</v>
       </c>
       <c r="B317" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="C317" t="s">
         <v>16</v>
       </c>
       <c r="D317" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.15">
@@ -6003,13 +6019,13 @@
         <v>4</v>
       </c>
       <c r="B318" t="s">
-        <v>18</v>
+        <v>429</v>
       </c>
       <c r="C318" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D318" t="s">
-        <v>19</v>
+        <v>430</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.15">
@@ -6017,13 +6033,13 @@
         <v>4</v>
       </c>
       <c r="B319" t="s">
-        <v>425</v>
+        <v>18</v>
       </c>
       <c r="C319" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D319" t="s">
-        <v>426</v>
+        <v>19</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.15">
@@ -6031,13 +6047,13 @@
         <v>4</v>
       </c>
       <c r="B320" t="s">
-        <v>10</v>
+        <v>425</v>
       </c>
       <c r="C320" t="s">
         <v>6</v>
       </c>
       <c r="D320" t="s">
-        <v>11</v>
+        <v>426</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.15">
@@ -6045,13 +6061,13 @@
         <v>4</v>
       </c>
       <c r="B321" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C321" t="s">
         <v>6</v>
       </c>
       <c r="D321" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.15">
@@ -6059,13 +6075,13 @@
         <v>4</v>
       </c>
       <c r="B322" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C322" t="s">
-        <v>519</v>
+        <v>6</v>
       </c>
       <c r="D322" t="s">
-        <v>520</v>
+        <v>26</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.15">
@@ -6073,13 +6089,13 @@
         <v>4</v>
       </c>
       <c r="B323" t="s">
-        <v>285</v>
+        <v>5</v>
       </c>
       <c r="C323" t="s">
-        <v>32</v>
+        <v>519</v>
       </c>
       <c r="D323" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.15">
@@ -6087,13 +6103,13 @@
         <v>4</v>
       </c>
       <c r="B324" t="s">
-        <v>392</v>
+        <v>285</v>
       </c>
       <c r="C324" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D324" t="s">
-        <v>393</v>
+        <v>286</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.15">
@@ -6101,13 +6117,13 @@
         <v>4</v>
       </c>
       <c r="B325" t="s">
-        <v>348</v>
+        <v>392</v>
       </c>
       <c r="C325" t="s">
         <v>8</v>
       </c>
       <c r="D325" t="s">
-        <v>349</v>
+        <v>393</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.15">
@@ -6115,13 +6131,13 @@
         <v>4</v>
       </c>
       <c r="B326" t="s">
-        <v>15</v>
+        <v>348</v>
       </c>
       <c r="C326" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D326" t="s">
-        <v>17</v>
+        <v>349</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.15">
@@ -6129,13 +6145,13 @@
         <v>4</v>
       </c>
       <c r="B327" t="s">
-        <v>380</v>
+        <v>15</v>
       </c>
       <c r="C327" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D327" t="s">
-        <v>381</v>
+        <v>17</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.15">
@@ -6143,19 +6159,33 @@
         <v>4</v>
       </c>
       <c r="B328" t="s">
+        <v>380</v>
+      </c>
+      <c r="C328" t="s">
+        <v>6</v>
+      </c>
+      <c r="D328" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A329" t="s">
+        <v>4</v>
+      </c>
+      <c r="B329" t="s">
         <v>279</v>
       </c>
-      <c r="C328" t="s">
+      <c r="C329" t="s">
         <v>8</v>
       </c>
-      <c r="D328" t="s">
+      <c r="D329" t="s">
         <v>280</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D328">
-    <sortCondition ref="A1:A328"/>
-    <sortCondition ref="B1:B328"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D329">
+    <sortCondition ref="A2:A329"/>
+    <sortCondition ref="B2:B329"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/软件工程/修复版题库.xlsx
+++ b/软件工程/修复版题库.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\24-25-2 期末复习资料\软件工程\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\24-25-2-IT-Exam-Resources\软件工程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B1DC1F-ED82-4906-9064-003145157CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C940F7DE-3E6F-4E00-BABD-389D5230CC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,19 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="525">
-  <si>
-    <t>题型</t>
-  </si>
-  <si>
-    <t>问题</t>
-  </si>
-  <si>
-    <t>答案</t>
-  </si>
-  <si>
-    <t>选项</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="520">
   <si>
     <t>选择题</t>
   </si>
@@ -280,9 +268,6 @@
     <t>现阶段绝大多数软件都不适合于快速原型模型。</t>
   </si>
   <si>
-    <t>编码和单元测试阶段的关键任务是写出正确的容易理解、容易维护的程序模块。</t>
-  </si>
-  <si>
     <t>瀑布模型、增量模型、快速原型模型开发软件时，目标是一次就把一个满足所有需求的产品提交给用户。</t>
   </si>
   <si>
@@ -661,9 +646,6 @@
     <t>系统流程图的'碟带'符号表示磁鼓输入输出,也可表示存储在磁鼓上的文件或数据库。</t>
   </si>
   <si>
-    <t>数据流图的'加号'符号表示'或'关系。</t>
-  </si>
-  <si>
     <t>系统流程图的'联机存储'符号用于指出转到图的另一部分或从图的另一部分转来。</t>
   </si>
   <si>
@@ -676,9 +658,6 @@
     <t>系统流程图的'通信链路'符号表示通过远程通信线路或链路传送数据。</t>
   </si>
   <si>
-    <t>zex 72 bs</t>
-  </si>
-  <si>
     <t>系统流程图的'人工输入'符号表示人工完成的处理。</t>
   </si>
   <si>
@@ -691,9 +670,6 @@
     <t>系统流程图中的'连接'符号是用来连接系统流程图中的其他符号,指明数据流动的方向。</t>
   </si>
   <si>
-    <t>数据流图的 'a' 符号表示只能从输入或变换的数据中选一个。</t>
-  </si>
-  <si>
     <t>系统流程图的'文档'符号通常表示打印输出，也可表示用打印终端输入数据。</t>
   </si>
   <si>
@@ -733,9 +709,6 @@
     <t>系统流程图的'磁盘'符号表示磁鼓输入输出,也可表示存储在磁鼓上的文件或数据库。</t>
   </si>
   <si>
-    <t>数据流图的'星号'符号表示数据之间的'或'关系。</t>
-  </si>
-  <si>
     <t>系统流程图的 '显示' 符号用于指出转到另一页图上或由另一页图转来。</t>
   </si>
   <si>
@@ -775,9 +748,6 @@
     <t>层次方框图是以树形结构描绘数据的层次结构,可以指出信息在某一类信息中有条件地出现。</t>
   </si>
   <si>
-    <t>验证需求的一致性是指,任何一条需求不能和其他需求互相矛盾。</t>
-  </si>
-  <si>
     <t>关系数据库中,范式级别越高,存储同样数据就需要分解成更多张表。</t>
   </si>
   <si>
@@ -857,9 +827,6 @@
   </si>
   <si>
     <t>模块</t>
-  </si>
-  <si>
-    <t>总体设计过程通常由两个主要阶段组成。</t>
   </si>
   <si>
     <t>A.系统设计阶段和详细设计阶段 | B.系统设计阶段和结构设计阶段 | C.需求分析阶段和确定方案阶段 | D.模块设计阶段和数据库设计阶段</t>
@@ -1353,9 +1320,6 @@
     <t>深度是软件结构内同一个层次上的模块总数的最大值</t>
   </si>
   <si>
-    <t>zex EH C</t>
-  </si>
-  <si>
     <t>树形结构可以描绘数据的层次结构，可以指出信息在某一类信息中有条件地出现。</t>
   </si>
   <si>
@@ -1389,9 +1353,6 @@
     <t>层次方框图是以树形结构描述数据的层次结构，可以指出信息在某一类信息中有条件地出现。</t>
   </si>
   <si>
-    <t>维护是诊断和纠正在使用过程中发现的错误。</t>
-  </si>
-  <si>
     <t>进行程序设计语言的选择时,首先考虑的是应用领域</t>
   </si>
   <si>
@@ -1453,12 +1414,6 @@
   </si>
   <si>
     <t>良好的个人编程风格是一个优秀的程序员所应具备的素质。</t>
-  </si>
-  <si>
-    <t>数据流图的 """ 符号用于指出数据流之间是 "与" 关系。</t>
-  </si>
-  <si>
-    <t>验证需求的一致性是指，任何一条需求不能和其他需求互相矛盾</t>
   </si>
   <si>
     <t>获取用户需求时经常使用的技术包括面向数据流自顶向下求精、简易的应用规格说明技术、快速原型</t>
@@ -1605,6 +1560,46 @@
   </si>
   <si>
     <t>选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码和单元测试阶段的关键任务是写出正确的容易理解、容易维护的程序模块。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据流图的 '⊕' 符号表示只能从输入或变换的数据中选一个。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据流图的 "+" 符号用于指出数据流之间是 "与" 关系。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总体设计过程通常由两个主要阶段组成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据流图的'+'符号表示'或'关系。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据流图的'*'符号表示数据之间的'或'关系。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纠错性维护是诊断和纠正在使用过程中发现的错误。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证需求的一致性是指，任何一条需求不能和其他需求互相矛盾。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1952,10 +1947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D329"/>
+  <dimension ref="A1:D325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1968,1904 +1963,1892 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="B1" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="C1" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="D1" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="B2" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="C2" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="B3" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="C3" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>218</v>
+        <v>458</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>442</v>
+        <v>510</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>443</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>470</v>
+        <v>241</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>250</v>
+        <v>326</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>337</v>
+        <v>438</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>467</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>461</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>466</v>
+        <v>244</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>474</v>
+        <v>242</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>252</v>
+        <v>442</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>240</v>
+        <v>439</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>475</v>
+        <v>427</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>438</v>
+        <v>321</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>439</v>
+        <v>324</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>332</v>
+        <v>447</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>460</v>
+        <v>325</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>324</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" t="s">
         <v>58</v>
       </c>
-      <c r="B35" t="s">
-        <v>325</v>
-      </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D36" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D37" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>459</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D38" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D39" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>472</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D40" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>455</v>
       </c>
       <c r="C41" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D41" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D42" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>468</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D43" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C44" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D44" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>452</v>
       </c>
       <c r="C45" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D45" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>432</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D46" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="C47" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D47" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>444</v>
+        <v>75</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D48" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>461</v>
+        <v>76</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D49" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D50" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>80</v>
+        <v>430</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D51" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>440</v>
+        <v>298</v>
       </c>
       <c r="C52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D52" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>441</v>
+        <v>68</v>
       </c>
       <c r="C53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D53" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>309</v>
+        <v>446</v>
       </c>
       <c r="C54" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D54" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>72</v>
       </c>
       <c r="C55" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D55" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>459</v>
+        <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D56" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>76</v>
+        <v>435</v>
       </c>
       <c r="C57" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D57" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
+        <v>431</v>
       </c>
       <c r="C58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D58" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>447</v>
+        <v>513</v>
       </c>
       <c r="C59" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D59" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B60" t="s">
-        <v>443</v>
+        <v>227</v>
       </c>
       <c r="C60" t="s">
-        <v>63</v>
+        <v>511</v>
       </c>
       <c r="D60" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B61" t="s">
-        <v>476</v>
+        <v>512</v>
       </c>
       <c r="C61" t="s">
-        <v>60</v>
+        <v>511</v>
       </c>
       <c r="D61" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B62" t="s">
-        <v>235</v>
+        <v>515</v>
       </c>
       <c r="C62" t="s">
-        <v>60</v>
+        <v>511</v>
       </c>
       <c r="D62" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B63" t="s">
-        <v>223</v>
+        <v>516</v>
       </c>
       <c r="C63" t="s">
-        <v>60</v>
+        <v>517</v>
       </c>
       <c r="D63" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B64" t="s">
-        <v>213</v>
+        <v>327</v>
       </c>
       <c r="C64" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D64" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B65" t="s">
-        <v>237</v>
+        <v>74</v>
       </c>
       <c r="C65" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D65" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B66" t="s">
-        <v>338</v>
+        <v>218</v>
       </c>
       <c r="C66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D66" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B67" t="s">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="C67" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D67" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B68" t="s">
-        <v>226</v>
+        <v>518</v>
       </c>
       <c r="C68" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D68" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B69" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="C69" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D69" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B70" t="s">
-        <v>454</v>
+        <v>223</v>
       </c>
       <c r="C70" t="s">
-        <v>63</v>
+        <v>517</v>
       </c>
       <c r="D70" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B71" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="C71" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D71" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B72" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="C72" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D72" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B73" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="C73" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D73" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B74" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="C74" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D74" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B75" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="C75" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D75" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B76" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="C76" t="s">
-        <v>63</v>
+        <v>517</v>
       </c>
       <c r="D76" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B77" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="C77" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D77" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B78" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C78" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D78" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B79" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="C79" t="s">
-        <v>60</v>
+        <v>517</v>
       </c>
       <c r="D79" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B80" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="C80" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D80" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B81" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="C81" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D81" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B82" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="C82" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D82" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B83" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C83" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D83" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B84" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C84" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D84" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B85" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="C85" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D85" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B86" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C86" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D86" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B87" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C87" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D87" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B88" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C88" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D88" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B89" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="C89" t="s">
-        <v>60</v>
+        <v>517</v>
       </c>
       <c r="D89" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B90" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="C90" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D90" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B91" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="C91" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D91" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B92" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="C92" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D92" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B93" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C93" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D93" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B94" t="s">
         <v>230</v>
       </c>
       <c r="C94" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D94" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B95" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C95" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D95" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B96" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="C96" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D96" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B97" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C97" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D97" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B98" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C98" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D98" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B99" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C99" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D99" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B100" t="s">
-        <v>225</v>
+        <v>81</v>
       </c>
       <c r="C100" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D100" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B101" t="s">
-        <v>227</v>
+        <v>55</v>
       </c>
       <c r="C101" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D101" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B102" t="s">
-        <v>85</v>
+        <v>450</v>
       </c>
       <c r="C102" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D102" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B103" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C103" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D103" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B104" t="s">
-        <v>463</v>
+        <v>437</v>
       </c>
       <c r="C104" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D104" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B105" t="s">
-        <v>73</v>
+        <v>243</v>
       </c>
       <c r="C105" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D105" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B106" t="s">
-        <v>449</v>
+        <v>248</v>
       </c>
       <c r="C106" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D106" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B107" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C107" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D107" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B108" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="C108" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D108" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B109" t="s">
-        <v>256</v>
+        <v>519</v>
       </c>
       <c r="C109" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D109" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B110" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C110" t="s">
-        <v>63</v>
+        <v>517</v>
       </c>
       <c r="D110" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B111" t="s">
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="C111" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D111" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B112" t="s">
-        <v>251</v>
+        <v>436</v>
       </c>
       <c r="C112" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D112" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B113" t="s">
-        <v>248</v>
+        <v>305</v>
       </c>
       <c r="C113" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D113" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B114" t="s">
-        <v>462</v>
+        <v>440</v>
       </c>
       <c r="C114" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D114" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B115" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="C115" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D115" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B116" t="s">
-        <v>316</v>
+        <v>451</v>
       </c>
       <c r="C116" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D116" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B117" t="s">
-        <v>452</v>
+        <v>199</v>
       </c>
       <c r="C117" t="s">
-        <v>60</v>
+        <v>511</v>
       </c>
       <c r="D117" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B118" t="s">
-        <v>473</v>
+        <v>103</v>
       </c>
       <c r="C118" t="s">
-        <v>63</v>
-      </c>
-      <c r="D118" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B119" t="s">
-        <v>464</v>
+        <v>263</v>
       </c>
       <c r="C119" t="s">
-        <v>60</v>
-      </c>
-      <c r="D119" t="s">
-        <v>61</v>
+        <v>264</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B120" t="s">
-        <v>204</v>
+        <v>95</v>
       </c>
       <c r="C120" t="s">
-        <v>60</v>
-      </c>
-      <c r="D120" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B121" t="s">
-        <v>1</v>
+        <v>476</v>
       </c>
       <c r="C121" t="s">
-        <v>2</v>
-      </c>
-      <c r="D121" t="s">
-        <v>3</v>
+        <v>477</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B122" t="s">
-        <v>108</v>
+        <v>497</v>
       </c>
       <c r="C122" t="s">
-        <v>109</v>
+        <v>470</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B123" t="s">
-        <v>273</v>
+        <v>408</v>
       </c>
       <c r="C123" t="s">
-        <v>274</v>
+        <v>409</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B124" t="s">
-        <v>100</v>
+        <v>377</v>
       </c>
       <c r="C124" t="s">
-        <v>101</v>
+        <v>378</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B125" t="s">
-        <v>491</v>
+        <v>375</v>
       </c>
       <c r="C125" t="s">
-        <v>492</v>
+        <v>376</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B126" t="s">
-        <v>512</v>
+        <v>390</v>
       </c>
       <c r="C126" t="s">
-        <v>485</v>
+        <v>391</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B127" t="s">
-        <v>419</v>
+        <v>295</v>
       </c>
       <c r="C127" t="s">
-        <v>420</v>
+        <v>268</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B128" t="s">
-        <v>388</v>
+        <v>318</v>
       </c>
       <c r="C128" t="s">
-        <v>389</v>
+        <v>319</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B129" t="s">
-        <v>386</v>
+        <v>334</v>
       </c>
       <c r="C129" t="s">
-        <v>387</v>
+        <v>316</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B130" t="s">
-        <v>401</v>
+        <v>315</v>
       </c>
       <c r="C130" t="s">
-        <v>402</v>
+        <v>316</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B131" t="s">
-        <v>306</v>
+        <v>123</v>
       </c>
       <c r="C131" t="s">
-        <v>278</v>
+        <v>124</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B132" t="s">
-        <v>329</v>
+        <v>276</v>
       </c>
       <c r="C132" t="s">
-        <v>330</v>
+        <v>277</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B133" t="s">
-        <v>345</v>
+        <v>469</v>
       </c>
       <c r="C133" t="s">
-        <v>327</v>
+        <v>470</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B134" t="s">
-        <v>326</v>
+        <v>385</v>
       </c>
       <c r="C134" t="s">
-        <v>327</v>
+        <v>277</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B135" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="C135" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B136" t="s">
-        <v>287</v>
+        <v>396</v>
       </c>
       <c r="C136" t="s">
-        <v>288</v>
+        <v>185</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B137" t="s">
-        <v>484</v>
+        <v>257</v>
       </c>
       <c r="C137" t="s">
-        <v>485</v>
+        <v>258</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>396</v>
+        <v>463</v>
       </c>
       <c r="C138" t="s">
-        <v>288</v>
+        <v>464</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B139" t="s">
-        <v>34</v>
+        <v>361</v>
       </c>
       <c r="C139" t="s">
-        <v>35</v>
+        <v>362</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B140" t="s">
-        <v>407</v>
+        <v>288</v>
       </c>
       <c r="C140" t="s">
-        <v>190</v>
+        <v>289</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B141" t="s">
         <v>267</v>
@@ -3876,766 +3859,766 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B142" t="s">
-        <v>478</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>479</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B143" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="C143" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B144" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="C144" t="s">
-        <v>300</v>
+        <v>256</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B145" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="C145" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B146" t="s">
-        <v>13</v>
+        <v>320</v>
       </c>
       <c r="C146" t="s">
-        <v>14</v>
+        <v>300</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B147" t="s">
-        <v>366</v>
+        <v>301</v>
       </c>
       <c r="C147" t="s">
-        <v>367</v>
+        <v>302</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B148" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="C148" t="s">
-        <v>266</v>
+        <v>312</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B149" t="s">
-        <v>310</v>
+        <v>425</v>
       </c>
       <c r="C149" t="s">
-        <v>311</v>
+        <v>426</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B150" t="s">
-        <v>331</v>
+        <v>498</v>
       </c>
       <c r="C150" t="s">
-        <v>311</v>
+        <v>154</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B151" t="s">
-        <v>312</v>
+        <v>482</v>
       </c>
       <c r="C151" t="s">
-        <v>313</v>
+        <v>483</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B152" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C152" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B153" t="s">
-        <v>436</v>
+        <v>328</v>
       </c>
       <c r="C153" t="s">
-        <v>437</v>
+        <v>329</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B154" t="s">
-        <v>513</v>
+        <v>333</v>
       </c>
       <c r="C154" t="s">
-        <v>159</v>
+        <v>308</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B155" t="s">
-        <v>497</v>
+        <v>307</v>
       </c>
       <c r="C155" t="s">
-        <v>498</v>
+        <v>308</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B156" t="s">
-        <v>328</v>
+        <v>87</v>
       </c>
       <c r="C156" t="s">
-        <v>328</v>
+        <v>88</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B157" t="s">
-        <v>339</v>
+        <v>495</v>
       </c>
       <c r="C157" t="s">
-        <v>340</v>
+        <v>496</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B158" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="C158" t="s">
-        <v>319</v>
+        <v>364</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B159" t="s">
-        <v>318</v>
+        <v>111</v>
       </c>
       <c r="C159" t="s">
-        <v>319</v>
+        <v>112</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B160" t="s">
-        <v>92</v>
+        <v>465</v>
       </c>
       <c r="C160" t="s">
-        <v>93</v>
+        <v>466</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B161" t="s">
-        <v>510</v>
+        <v>52</v>
       </c>
       <c r="C161" t="s">
-        <v>511</v>
+        <v>53</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B162" t="s">
-        <v>374</v>
+        <v>78</v>
       </c>
       <c r="C162" t="s">
-        <v>375</v>
+        <v>79</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B163" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C163" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B164" t="s">
-        <v>480</v>
+        <v>85</v>
       </c>
       <c r="C164" t="s">
-        <v>481</v>
+        <v>86</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B165" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="C165" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B166" t="s">
-        <v>82</v>
+        <v>350</v>
       </c>
       <c r="C166" t="s">
-        <v>83</v>
+        <v>351</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B167" t="s">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="C167" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B168" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="C168" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B169" t="s">
-        <v>96</v>
+        <v>499</v>
       </c>
       <c r="C169" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B170" t="s">
-        <v>361</v>
+        <v>117</v>
       </c>
       <c r="C170" t="s">
-        <v>362</v>
+        <v>118</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B171" t="s">
-        <v>20</v>
+        <v>348</v>
       </c>
       <c r="C171" t="s">
-        <v>21</v>
+        <v>349</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B172" t="s">
-        <v>120</v>
+        <v>444</v>
       </c>
       <c r="C172" t="s">
-        <v>121</v>
+        <v>445</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B173" t="s">
-        <v>514</v>
+        <v>99</v>
       </c>
       <c r="C173" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B174" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C174" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B175" t="s">
-        <v>359</v>
+        <v>468</v>
       </c>
       <c r="C175" t="s">
-        <v>360</v>
+        <v>445</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B176" t="s">
-        <v>457</v>
+        <v>394</v>
       </c>
       <c r="C176" t="s">
-        <v>458</v>
+        <v>395</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B177" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C177" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B178" t="s">
-        <v>112</v>
+        <v>371</v>
       </c>
       <c r="C178" t="s">
-        <v>113</v>
+        <v>372</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B179" t="s">
-        <v>483</v>
+        <v>371</v>
       </c>
       <c r="C179" t="s">
-        <v>458</v>
+        <v>372</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B180" t="s">
-        <v>405</v>
+        <v>97</v>
       </c>
       <c r="C180" t="s">
-        <v>406</v>
+        <v>98</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B181" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C181" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B182" t="s">
-        <v>382</v>
+        <v>335</v>
       </c>
       <c r="C182" t="s">
-        <v>383</v>
+        <v>336</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B183" t="s">
-        <v>382</v>
+        <v>44</v>
       </c>
       <c r="C183" t="s">
-        <v>383</v>
+        <v>45</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B184" t="s">
-        <v>102</v>
+        <v>489</v>
       </c>
       <c r="C184" t="s">
-        <v>103</v>
+        <v>490</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B185" t="s">
-        <v>126</v>
+        <v>253</v>
       </c>
       <c r="C185" t="s">
-        <v>127</v>
+        <v>254</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B186" t="s">
-        <v>346</v>
+        <v>119</v>
       </c>
       <c r="C186" t="s">
-        <v>347</v>
+        <v>120</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B187" t="s">
-        <v>48</v>
+        <v>251</v>
       </c>
       <c r="C187" t="s">
-        <v>49</v>
+        <v>252</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B188" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="C188" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B189" t="s">
-        <v>263</v>
+        <v>478</v>
       </c>
       <c r="C189" t="s">
-        <v>264</v>
+        <v>479</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B190" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="C190" t="s">
-        <v>125</v>
+        <v>176</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B191" t="s">
-        <v>261</v>
+        <v>398</v>
       </c>
       <c r="C191" t="s">
-        <v>262</v>
+        <v>399</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B192" t="s">
-        <v>495</v>
+        <v>149</v>
       </c>
       <c r="C192" t="s">
-        <v>496</v>
+        <v>150</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B193" t="s">
-        <v>493</v>
+        <v>259</v>
       </c>
       <c r="C193" t="s">
-        <v>494</v>
+        <v>260</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B194" t="s">
-        <v>150</v>
+        <v>484</v>
       </c>
       <c r="C194" t="s">
-        <v>181</v>
+        <v>485</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B195" t="s">
-        <v>409</v>
+        <v>309</v>
       </c>
       <c r="C195" t="s">
-        <v>410</v>
+        <v>310</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B196" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="C196" t="s">
-        <v>155</v>
+        <v>56</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B197" t="s">
-        <v>269</v>
+        <v>36</v>
       </c>
       <c r="C197" t="s">
-        <v>270</v>
+        <v>37</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B198" t="s">
-        <v>499</v>
+        <v>40</v>
       </c>
       <c r="C198" t="s">
-        <v>500</v>
+        <v>397</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B199" t="s">
-        <v>320</v>
+        <v>422</v>
       </c>
       <c r="C199" t="s">
-        <v>321</v>
+        <v>33</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B200" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="C200" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B201" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C201" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>44</v>
+        <v>194</v>
       </c>
       <c r="C202" t="s">
-        <v>408</v>
+        <v>195</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B203" t="s">
-        <v>433</v>
+        <v>190</v>
       </c>
       <c r="C203" t="s">
-        <v>37</v>
+        <v>191</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B204" t="s">
-        <v>36</v>
+        <v>186</v>
       </c>
       <c r="C204" t="s">
-        <v>37</v>
+        <v>154</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B205" t="s">
-        <v>84</v>
+        <v>187</v>
       </c>
       <c r="C205" t="s">
-        <v>63</v>
+        <v>176</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B206" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="C206" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B207" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="C207" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B208" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="C208" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B209" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="C209" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B210" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="C210" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B211" t="s">
         <v>180</v>
@@ -4646,1546 +4629,1502 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B212" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="C212" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B213" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C213" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B214" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C214" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B215" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C215" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B216" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="C216" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B217" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C217" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B218" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="C218" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B219" t="s">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="C219" t="s">
-        <v>183</v>
+        <v>106</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B220" t="s">
-        <v>178</v>
+        <v>290</v>
       </c>
       <c r="C220" t="s">
-        <v>179</v>
+        <v>291</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B221" t="s">
-        <v>174</v>
+        <v>292</v>
       </c>
       <c r="C221" t="s">
-        <v>159</v>
+        <v>289</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B222" t="s">
-        <v>158</v>
+        <v>322</v>
       </c>
       <c r="C222" t="s">
-        <v>159</v>
+        <v>323</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B223" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="C223" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B224" t="s">
-        <v>301</v>
+        <v>474</v>
       </c>
       <c r="C224" t="s">
-        <v>302</v>
+        <v>475</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B225" t="s">
-        <v>303</v>
+        <v>493</v>
       </c>
       <c r="C225" t="s">
-        <v>300</v>
+        <v>494</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B226" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="C226" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B227" t="s">
-        <v>70</v>
+        <v>471</v>
       </c>
       <c r="C227" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B228" t="s">
-        <v>489</v>
+        <v>93</v>
       </c>
       <c r="C228" t="s">
-        <v>490</v>
+        <v>94</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B229" t="s">
-        <v>508</v>
+        <v>456</v>
       </c>
       <c r="C229" t="s">
-        <v>509</v>
+        <v>94</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B230" t="s">
-        <v>370</v>
+        <v>502</v>
       </c>
       <c r="C230" t="s">
-        <v>371</v>
+        <v>503</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B231" t="s">
-        <v>486</v>
+        <v>192</v>
       </c>
       <c r="C231" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B232" t="s">
-        <v>98</v>
+        <v>472</v>
       </c>
       <c r="C232" t="s">
-        <v>99</v>
+        <v>473</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B233" t="s">
-        <v>469</v>
+        <v>249</v>
       </c>
       <c r="C233" t="s">
-        <v>99</v>
+        <v>250</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B234" t="s">
-        <v>517</v>
+        <v>331</v>
       </c>
       <c r="C234" t="s">
-        <v>518</v>
+        <v>332</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B235" t="s">
-        <v>197</v>
+        <v>330</v>
       </c>
       <c r="C235" t="s">
-        <v>198</v>
+        <v>264</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B236" t="s">
-        <v>487</v>
+        <v>303</v>
       </c>
       <c r="C236" t="s">
-        <v>488</v>
+        <v>304</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B237" t="s">
-        <v>259</v>
+        <v>182</v>
       </c>
       <c r="C237" t="s">
-        <v>260</v>
+        <v>183</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B238" t="s">
-        <v>342</v>
+        <v>83</v>
       </c>
       <c r="C238" t="s">
-        <v>343</v>
+        <v>84</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B239" t="s">
-        <v>341</v>
+        <v>18</v>
       </c>
       <c r="C239" t="s">
-        <v>274</v>
+        <v>10</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B240" t="s">
-        <v>314</v>
+        <v>167</v>
       </c>
       <c r="C240" t="s">
-        <v>315</v>
+        <v>168</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B241" t="s">
-        <v>187</v>
+        <v>488</v>
       </c>
       <c r="C241" t="s">
-        <v>188</v>
+        <v>33</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B242" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C242" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B243" t="s">
-        <v>22</v>
+        <v>491</v>
       </c>
       <c r="C243" t="s">
-        <v>14</v>
+        <v>492</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B244" t="s">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c r="C244" t="s">
-        <v>173</v>
+        <v>51</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B245" t="s">
-        <v>503</v>
+        <v>101</v>
       </c>
       <c r="C245" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
+        <v>0</v>
+      </c>
+      <c r="B246" t="s">
+        <v>272</v>
+      </c>
+      <c r="C246" t="s">
         <v>12</v>
       </c>
-      <c r="B246" t="s">
-        <v>94</v>
-      </c>
-      <c r="C246" t="s">
-        <v>95</v>
+      <c r="D246" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B247" t="s">
-        <v>506</v>
+        <v>388</v>
       </c>
       <c r="C247" t="s">
-        <v>507</v>
+        <v>2</v>
+      </c>
+      <c r="D247" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B248" t="s">
-        <v>54</v>
+        <v>383</v>
       </c>
       <c r="C248" t="s">
-        <v>55</v>
+        <v>2</v>
+      </c>
+      <c r="D248" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
+        <v>0</v>
+      </c>
+      <c r="B249" t="s">
+        <v>282</v>
+      </c>
+      <c r="C249" t="s">
         <v>12</v>
       </c>
-      <c r="B249" t="s">
-        <v>106</v>
-      </c>
-      <c r="C249" t="s">
-        <v>107</v>
+      <c r="D249" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
+        <v>0</v>
+      </c>
+      <c r="B250" t="s">
+        <v>400</v>
+      </c>
+      <c r="C250" t="s">
         <v>4</v>
       </c>
-      <c r="B250" t="s">
-        <v>283</v>
-      </c>
-      <c r="C250" t="s">
-        <v>16</v>
-      </c>
       <c r="D250" t="s">
-        <v>284</v>
+        <v>401</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B251" t="s">
-        <v>399</v>
+        <v>270</v>
       </c>
       <c r="C251" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D251" t="s">
-        <v>400</v>
+        <v>271</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B252" t="s">
-        <v>394</v>
+        <v>139</v>
       </c>
       <c r="C252" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D252" t="s">
-        <v>395</v>
+        <v>140</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B253" t="s">
-        <v>293</v>
+        <v>392</v>
       </c>
       <c r="C253" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D253" t="s">
-        <v>294</v>
+        <v>393</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B254" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C254" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D254" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B255" t="s">
-        <v>281</v>
+        <v>402</v>
       </c>
       <c r="C255" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D255" t="s">
-        <v>282</v>
+        <v>403</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B256" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C256" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D256" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B257" t="s">
-        <v>403</v>
+        <v>235</v>
       </c>
       <c r="C257" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D257" t="s">
-        <v>404</v>
+        <v>236</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B258" t="s">
-        <v>417</v>
+        <v>235</v>
       </c>
       <c r="C258" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D258" t="s">
-        <v>418</v>
+        <v>237</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B259" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="C259" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D259" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
+        <v>0</v>
+      </c>
+      <c r="B260" t="s">
+        <v>280</v>
+      </c>
+      <c r="C260" t="s">
         <v>4</v>
       </c>
-      <c r="B260" t="s">
-        <v>160</v>
-      </c>
-      <c r="C260" t="s">
-        <v>6</v>
-      </c>
       <c r="D260" t="s">
-        <v>161</v>
+        <v>281</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B261" t="s">
-        <v>244</v>
+        <v>373</v>
       </c>
       <c r="C261" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D261" t="s">
-        <v>245</v>
+        <v>374</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B262" t="s">
-        <v>244</v>
+        <v>346</v>
       </c>
       <c r="C262" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D262" t="s">
-        <v>246</v>
+        <v>347</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
+        <v>0</v>
+      </c>
+      <c r="B263" t="s">
+        <v>157</v>
+      </c>
+      <c r="C263" t="s">
         <v>4</v>
       </c>
-      <c r="B263" t="s">
-        <v>415</v>
-      </c>
-      <c r="C263" t="s">
-        <v>16</v>
-      </c>
       <c r="D263" t="s">
-        <v>416</v>
+        <v>158</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B264" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="C264" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D264" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B265" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C265" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D265" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B266" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="C266" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D266" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
+        <v>0</v>
+      </c>
+      <c r="B267" t="s">
+        <v>286</v>
+      </c>
+      <c r="C267" t="s">
         <v>4</v>
       </c>
-      <c r="B267" t="s">
-        <v>162</v>
-      </c>
-      <c r="C267" t="s">
-        <v>8</v>
-      </c>
       <c r="D267" t="s">
-        <v>163</v>
+        <v>287</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B268" t="s">
-        <v>166</v>
+        <v>23</v>
       </c>
       <c r="C268" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D268" t="s">
-        <v>167</v>
+        <v>24</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B269" t="s">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="C269" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D269" t="s">
-        <v>391</v>
+        <v>424</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B270" t="s">
-        <v>352</v>
+        <v>147</v>
       </c>
       <c r="C270" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D270" t="s">
-        <v>353</v>
+        <v>148</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
+        <v>0</v>
+      </c>
+      <c r="B271" t="s">
+        <v>46</v>
+      </c>
+      <c r="C271" t="s">
         <v>4</v>
       </c>
-      <c r="B271" t="s">
-        <v>297</v>
-      </c>
-      <c r="C271" t="s">
-        <v>8</v>
-      </c>
       <c r="D271" t="s">
-        <v>298</v>
+        <v>47</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B272" t="s">
-        <v>27</v>
+        <v>367</v>
       </c>
       <c r="C272" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D272" t="s">
-        <v>28</v>
+        <v>368</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
+        <v>0</v>
+      </c>
+      <c r="B273" t="s">
+        <v>284</v>
+      </c>
+      <c r="C273" t="s">
         <v>4</v>
       </c>
-      <c r="B273" t="s">
-        <v>434</v>
-      </c>
-      <c r="C273" t="s">
-        <v>16</v>
-      </c>
       <c r="D273" t="s">
-        <v>435</v>
+        <v>285</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B274" t="s">
-        <v>152</v>
+        <v>410</v>
       </c>
       <c r="C274" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D274" t="s">
-        <v>153</v>
+        <v>411</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
+        <v>0</v>
+      </c>
+      <c r="B275" t="s">
+        <v>412</v>
+      </c>
+      <c r="C275" t="s">
         <v>4</v>
       </c>
-      <c r="B275" t="s">
-        <v>50</v>
-      </c>
-      <c r="C275" t="s">
-        <v>8</v>
-      </c>
       <c r="D275" t="s">
-        <v>51</v>
+        <v>413</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
+        <v>0</v>
+      </c>
+      <c r="B276" t="s">
+        <v>357</v>
+      </c>
+      <c r="C276" t="s">
         <v>4</v>
       </c>
-      <c r="B276" t="s">
-        <v>378</v>
-      </c>
-      <c r="C276" t="s">
-        <v>16</v>
-      </c>
       <c r="D276" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B277" t="s">
-        <v>295</v>
+        <v>19</v>
       </c>
       <c r="C277" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D277" t="s">
-        <v>296</v>
+        <v>20</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B278" t="s">
-        <v>421</v>
+        <v>38</v>
       </c>
       <c r="C278" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D278" t="s">
-        <v>422</v>
+        <v>39</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
+        <v>0</v>
+      </c>
+      <c r="B279" t="s">
+        <v>3</v>
+      </c>
+      <c r="C279" t="s">
         <v>4</v>
       </c>
-      <c r="B279" t="s">
-        <v>423</v>
-      </c>
-      <c r="C279" t="s">
-        <v>8</v>
-      </c>
       <c r="D279" t="s">
-        <v>424</v>
+        <v>5</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B280" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="C280" t="s">
-        <v>8</v>
+        <v>344</v>
       </c>
       <c r="D280" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
+        <v>0</v>
+      </c>
+      <c r="B281" t="s">
+        <v>486</v>
+      </c>
+      <c r="C281" t="s">
         <v>4</v>
       </c>
-      <c r="B281" t="s">
-        <v>23</v>
-      </c>
-      <c r="C281" t="s">
-        <v>16</v>
-      </c>
       <c r="D281" t="s">
-        <v>24</v>
+        <v>487</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B282" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C282" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D282" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B283" t="s">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="C283" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D283" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B284" t="s">
-        <v>354</v>
+        <v>27</v>
       </c>
       <c r="C284" t="s">
-        <v>355</v>
+        <v>28</v>
       </c>
       <c r="D284" t="s">
-        <v>356</v>
+        <v>29</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B285" t="s">
-        <v>501</v>
+        <v>265</v>
       </c>
       <c r="C285" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D285" t="s">
-        <v>502</v>
+        <v>266</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B286" t="s">
-        <v>52</v>
+        <v>293</v>
       </c>
       <c r="C286" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D286" t="s">
-        <v>53</v>
+        <v>294</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B287" t="s">
-        <v>130</v>
+        <v>296</v>
       </c>
       <c r="C287" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D287" t="s">
-        <v>131</v>
+        <v>297</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B288" t="s">
-        <v>31</v>
+        <v>261</v>
       </c>
       <c r="C288" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D288" t="s">
-        <v>33</v>
+        <v>262</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B289" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C289" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D289" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B290" t="s">
-        <v>304</v>
+        <v>133</v>
       </c>
       <c r="C290" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D290" t="s">
-        <v>305</v>
+        <v>134</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B291" t="s">
-        <v>307</v>
+        <v>145</v>
       </c>
       <c r="C291" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D291" t="s">
-        <v>308</v>
+        <v>146</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
+        <v>0</v>
+      </c>
+      <c r="B292" t="s">
+        <v>163</v>
+      </c>
+      <c r="C292" t="s">
         <v>4</v>
       </c>
-      <c r="B292" t="s">
-        <v>271</v>
-      </c>
-      <c r="C292" t="s">
-        <v>16</v>
-      </c>
       <c r="D292" t="s">
-        <v>272</v>
+        <v>164</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B293" t="s">
-        <v>289</v>
+        <v>197</v>
       </c>
       <c r="C293" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D293" t="s">
-        <v>290</v>
+        <v>198</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
+        <v>0</v>
+      </c>
+      <c r="B294" t="s">
+        <v>40</v>
+      </c>
+      <c r="C294" t="s">
         <v>4</v>
       </c>
-      <c r="B294" t="s">
-        <v>138</v>
-      </c>
-      <c r="C294" t="s">
-        <v>16</v>
-      </c>
       <c r="D294" t="s">
-        <v>139</v>
+        <v>41</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B295" t="s">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="C295" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D295" t="s">
-        <v>151</v>
+        <v>421</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B296" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="C296" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D296" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B297" t="s">
-        <v>202</v>
+        <v>141</v>
       </c>
       <c r="C297" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D297" t="s">
-        <v>203</v>
+        <v>142</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B298" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="C298" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D298" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
+        <v>0</v>
+      </c>
+      <c r="B299" t="s">
+        <v>127</v>
+      </c>
+      <c r="C299" t="s">
         <v>4</v>
       </c>
-      <c r="B299" t="s">
-        <v>431</v>
-      </c>
-      <c r="C299" t="s">
-        <v>6</v>
-      </c>
       <c r="D299" t="s">
-        <v>432</v>
+        <v>128</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
+        <v>0</v>
+      </c>
+      <c r="B300" t="s">
+        <v>137</v>
+      </c>
+      <c r="C300" t="s">
         <v>4</v>
       </c>
-      <c r="B300" t="s">
-        <v>156</v>
-      </c>
-      <c r="C300" t="s">
-        <v>32</v>
-      </c>
       <c r="D300" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B301" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C301" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D301" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B302" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C302" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D302" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B303" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="C303" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D303" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B304" t="s">
-        <v>142</v>
+        <v>386</v>
       </c>
       <c r="C304" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D304" t="s">
-        <v>143</v>
+        <v>387</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B305" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C305" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D305" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B306" t="s">
-        <v>148</v>
+        <v>34</v>
       </c>
       <c r="C306" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D306" t="s">
-        <v>149</v>
+        <v>35</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A307" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B307" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="C307" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D307" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B308" t="s">
-        <v>397</v>
+        <v>339</v>
       </c>
       <c r="C308" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D308" t="s">
-        <v>398</v>
+        <v>340</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B309" t="s">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="C309" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D309" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A310" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B310" t="s">
-        <v>38</v>
+        <v>467</v>
       </c>
       <c r="C310" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D310" t="s">
-        <v>39</v>
+        <v>126</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B311" t="s">
-        <v>29</v>
+        <v>365</v>
       </c>
       <c r="C311" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D311" t="s">
-        <v>30</v>
+        <v>366</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B312" t="s">
-        <v>350</v>
+        <v>416</v>
       </c>
       <c r="C312" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D312" t="s">
-        <v>351</v>
+        <v>417</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B313" t="s">
-        <v>46</v>
+        <v>433</v>
       </c>
       <c r="C313" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D313" t="s">
-        <v>47</v>
+        <v>434</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A314" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B314" t="s">
-        <v>482</v>
+        <v>418</v>
       </c>
       <c r="C314" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D314" t="s">
-        <v>131</v>
+        <v>419</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A315" t="s">
+        <v>0</v>
+      </c>
+      <c r="B315" t="s">
+        <v>14</v>
+      </c>
+      <c r="C315" t="s">
         <v>4</v>
       </c>
-      <c r="B315" t="s">
-        <v>376</v>
-      </c>
-      <c r="C315" t="s">
-        <v>16</v>
-      </c>
       <c r="D315" t="s">
-        <v>377</v>
+        <v>15</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A316" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B316" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="C316" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D316" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A317" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B317" t="s">
-        <v>445</v>
+        <v>6</v>
       </c>
       <c r="C317" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D317" t="s">
-        <v>446</v>
+        <v>7</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A318" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B318" t="s">
-        <v>429</v>
+        <v>21</v>
       </c>
       <c r="C318" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D318" t="s">
-        <v>430</v>
+        <v>22</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B319" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C319" t="s">
-        <v>8</v>
+        <v>504</v>
       </c>
       <c r="D319" t="s">
-        <v>19</v>
+        <v>505</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A320" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B320" t="s">
-        <v>425</v>
+        <v>274</v>
       </c>
       <c r="C320" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D320" t="s">
-        <v>426</v>
+        <v>275</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A321" t="s">
+        <v>0</v>
+      </c>
+      <c r="B321" t="s">
+        <v>381</v>
+      </c>
+      <c r="C321" t="s">
         <v>4</v>
       </c>
-      <c r="B321" t="s">
-        <v>10</v>
-      </c>
-      <c r="C321" t="s">
-        <v>6</v>
-      </c>
       <c r="D321" t="s">
-        <v>11</v>
+        <v>382</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A322" t="s">
+        <v>0</v>
+      </c>
+      <c r="B322" t="s">
+        <v>337</v>
+      </c>
+      <c r="C322" t="s">
         <v>4</v>
       </c>
-      <c r="B322" t="s">
-        <v>25</v>
-      </c>
-      <c r="C322" t="s">
-        <v>6</v>
-      </c>
       <c r="D322" t="s">
-        <v>26</v>
+        <v>338</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A323" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B323" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C323" t="s">
-        <v>519</v>
+        <v>12</v>
       </c>
       <c r="D323" t="s">
-        <v>520</v>
+        <v>13</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A324" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B324" t="s">
-        <v>285</v>
+        <v>369</v>
       </c>
       <c r="C324" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D324" t="s">
-        <v>286</v>
+        <v>370</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A325" t="s">
+        <v>0</v>
+      </c>
+      <c r="B325" t="s">
+        <v>514</v>
+      </c>
+      <c r="C325" t="s">
         <v>4</v>
       </c>
-      <c r="B325" t="s">
-        <v>392</v>
-      </c>
-      <c r="C325" t="s">
-        <v>8</v>
-      </c>
       <c r="D325" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A326" t="s">
-        <v>4</v>
-      </c>
-      <c r="B326" t="s">
-        <v>348</v>
-      </c>
-      <c r="C326" t="s">
-        <v>8</v>
-      </c>
-      <c r="D326" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A327" t="s">
-        <v>4</v>
-      </c>
-      <c r="B327" t="s">
-        <v>15</v>
-      </c>
-      <c r="C327" t="s">
-        <v>16</v>
-      </c>
-      <c r="D327" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A328" t="s">
-        <v>4</v>
-      </c>
-      <c r="B328" t="s">
-        <v>380</v>
-      </c>
-      <c r="C328" t="s">
-        <v>6</v>
-      </c>
-      <c r="D328" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A329" t="s">
-        <v>4</v>
-      </c>
-      <c r="B329" t="s">
-        <v>279</v>
-      </c>
-      <c r="C329" t="s">
-        <v>8</v>
-      </c>
-      <c r="D329" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D329">
-    <sortCondition ref="A2:A329"/>
-    <sortCondition ref="B2:B329"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D325">
+    <sortCondition ref="A2:A325"/>
+    <sortCondition ref="B2:B325"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
